--- a/Collections/EURO/Luxembourg/#EURO#Luxembourg#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Luxembourg/#EURO#Luxembourg#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\Luxembourg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Luxembourg\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -779,7 +779,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -795,7 +795,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -811,7 +811,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -827,7 +827,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -843,7 +843,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -859,7 +859,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -880,7 +880,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="143">
   <si>
     <t>-</t>
   </si>
@@ -988,9 +988,6 @@
     <t>Obv: With mint letter "S"</t>
   </si>
   <si>
-    <t>Obv: With mint letter "F"</t>
-  </si>
-  <si>
     <t>Subtype_3</t>
   </si>
   <si>
@@ -1301,6 +1298,18 @@
   </si>
   <si>
     <t>1.057.000</t>
+  </si>
+  <si>
+    <t>Obv: With mint symbol cornucopia</t>
+  </si>
+  <si>
+    <t>Obv: Mint director Symbol - French horn</t>
+  </si>
+  <si>
+    <t>Obv: Grand Duke Henri</t>
+  </si>
+  <si>
+    <t>Subtype_4</t>
   </si>
 </sst>
 </file>
@@ -1640,15 +1649,6 @@
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="95">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2385,6 +2385,15 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2416,9 +2425,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" name="№" dataDxfId="94"/>
+    <tableColumn id="2" name="Link" dataDxfId="93" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="92"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2687,28 +2696,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L1" sqref="L1"/>
+      <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="36.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.6328125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.6328125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="18.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.6328125" style="3" customWidth="1"/>
     <col min="6" max="8" width="12.453125" style="3" customWidth="1"/>
     <col min="9" max="11" width="3.81640625" style="3" customWidth="1"/>
     <col min="12" max="12" width="13.7265625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -2732,7 +2741,7 @@
       <c r="K1" s="35"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="10" t="s">
@@ -2742,7 +2751,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>32</v>
@@ -2764,22 +2773,24 @@
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2002</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>128</v>
+      </c>
       <c r="F3" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -2800,24 +2811,25 @@
         <f>IF(OR(AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>2003</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F4" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -2838,24 +2850,25 @@
         <f t="shared" ref="L4:L23" si="0">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>2004</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F5" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>0</v>
@@ -2877,23 +2890,25 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>2005</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>0</v>
@@ -2912,23 +2927,25 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>2006</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" s="19" t="s">
         <v>0</v>
@@ -2947,18 +2964,22 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>2007</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+        <v>139</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="F8" s="19" t="s">
         <v>0</v>
       </c>
@@ -2966,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>0</v>
@@ -2982,18 +3003,22 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>2008</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+        <v>139</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="F9" s="19" t="s">
         <v>0</v>
       </c>
@@ -3001,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>0</v>
@@ -3017,22 +3042,24 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>2009</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E10" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F10" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>0</v>
@@ -3054,22 +3081,24 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>2010</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F11" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>0</v>
@@ -3091,22 +3120,24 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>2011</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F12" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>0</v>
@@ -3128,22 +3159,24 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>2012</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F13" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>0</v>
@@ -3165,22 +3198,24 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>2013</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F14" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>0</v>
@@ -3202,22 +3237,24 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>2014</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F15" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G15" s="19" t="s">
         <v>0</v>
@@ -3239,22 +3276,24 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>2015</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F16" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>0</v>
@@ -3281,17 +3320,19 @@
         <v>2016</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="F17" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>0</v>
@@ -3318,17 +3359,19 @@
         <v>2017</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E18" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="F18" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>0</v>
@@ -3355,17 +3398,19 @@
         <v>2018</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>132</v>
+      </c>
       <c r="F19" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>0</v>
@@ -3392,17 +3437,19 @@
         <v>2018</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="F20" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G20" s="19" t="s">
         <v>0</v>
@@ -3429,17 +3476,19 @@
         <v>2018</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="F21" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G21" s="19" t="s">
         <v>0</v>
@@ -3466,17 +3515,19 @@
         <v>2019</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>132</v>
+      </c>
       <c r="F22" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G22" s="19" t="s">
         <v>0</v>
@@ -3503,17 +3554,19 @@
         <v>2019</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E23" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="F23" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G23" s="19" t="s">
         <v>0</v>
@@ -3534,6 +3587,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="3"/>
+      <c r="D24" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3544,7 +3601,7 @@
     <mergeCell ref="I1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:I5 I10:I18">
-    <cfRule type="containsText" dxfId="94" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="68">
@@ -3559,7 +3616,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J7">
-    <cfRule type="containsText" dxfId="93" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="64">
@@ -3574,7 +3631,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="92" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -3589,7 +3646,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K9">
-    <cfRule type="containsText" dxfId="91" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="58">
@@ -3604,7 +3661,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="containsText" dxfId="90" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
@@ -3619,7 +3676,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="containsText" dxfId="89" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -3634,7 +3691,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J18">
-    <cfRule type="containsText" dxfId="88" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -3648,8 +3705,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5 J3">
-    <cfRule type="containsText" dxfId="87" priority="27" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J3 J5">
+    <cfRule type="containsText" dxfId="84" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -3664,7 +3721,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="86" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -3679,7 +3736,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:K18">
-    <cfRule type="containsText" dxfId="85" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K10))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -3694,7 +3751,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="containsText" dxfId="84" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
@@ -3709,7 +3766,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K7">
-    <cfRule type="containsText" dxfId="83" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -3724,7 +3781,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:K19 J20:K20">
-    <cfRule type="containsText" dxfId="82" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -3751,7 +3808,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="81" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3768,7 +3825,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="80" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3785,12 +3842,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="79" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="containsText" dxfId="78" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -3817,7 +3874,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="77" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3834,7 +3891,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="76" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3851,7 +3908,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3868,7 +3925,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="74" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3880,22 +3937,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="36.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.6328125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.6328125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="18.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.6328125" style="3" customWidth="1"/>
     <col min="6" max="8" width="12.453125" style="3" customWidth="1"/>
     <col min="9" max="11" width="3.81640625" style="3" customWidth="1"/>
     <col min="12" max="12" width="13.7265625" style="3" customWidth="1"/>
@@ -3935,7 +3992,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>32</v>
@@ -3962,17 +4019,19 @@
         <v>2002</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>128</v>
+      </c>
       <c r="F3" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -4000,17 +4059,19 @@
         <v>2003</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F4" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -4038,17 +4099,19 @@
         <v>2004</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F5" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>0</v>
@@ -4075,18 +4138,20 @@
         <v>2005</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>0</v>
@@ -4110,18 +4175,20 @@
         <v>2006</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" s="19" t="s">
         <v>0</v>
@@ -4145,13 +4212,17 @@
         <v>2007</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+        <v>139</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="F8" s="19" t="s">
         <v>0</v>
       </c>
@@ -4159,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>0</v>
@@ -4180,13 +4251,17 @@
         <v>2008</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+        <v>139</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="F9" s="19" t="s">
         <v>0</v>
       </c>
@@ -4194,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>0</v>
@@ -4215,17 +4290,19 @@
         <v>2009</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E10" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F10" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>0</v>
@@ -4252,17 +4329,19 @@
         <v>2010</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F11" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>0</v>
@@ -4289,17 +4368,19 @@
         <v>2011</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F12" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>0</v>
@@ -4326,17 +4407,19 @@
         <v>2012</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F13" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>0</v>
@@ -4363,17 +4446,19 @@
         <v>2013</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F14" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>0</v>
@@ -4400,17 +4485,19 @@
         <v>2014</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F15" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G15" s="19" t="s">
         <v>0</v>
@@ -4437,17 +4524,19 @@
         <v>2015</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F16" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>0</v>
@@ -4474,17 +4563,19 @@
         <v>2016</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="F17" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>0</v>
@@ -4511,17 +4602,19 @@
         <v>2017</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E18" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="F18" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>0</v>
@@ -4548,17 +4641,19 @@
         <v>2018</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>132</v>
+      </c>
       <c r="F19" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>0</v>
@@ -4585,17 +4680,19 @@
         <v>2018</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="F20" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G20" s="19" t="s">
         <v>0</v>
@@ -4622,17 +4719,19 @@
         <v>2018</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="F21" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G21" s="19" t="s">
         <v>0</v>
@@ -4659,17 +4758,19 @@
         <v>2019</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>132</v>
+      </c>
       <c r="F22" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G22" s="19" t="s">
         <v>0</v>
@@ -4696,17 +4797,19 @@
         <v>2019</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E23" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="F23" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G23" s="19" t="s">
         <v>0</v>
@@ -4727,6 +4830,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="3"/>
+      <c r="D24" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4773,7 +4880,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="73" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4790,7 +4897,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="72" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4807,7 +4914,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="71" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4836,7 +4943,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="70" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4853,7 +4960,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="69" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4870,7 +4977,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="68" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4887,7 +4994,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="67" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4947,22 +5054,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="36.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.6328125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.6328125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="18.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.6328125" style="3" customWidth="1"/>
     <col min="6" max="8" width="12.453125" style="3" customWidth="1"/>
     <col min="9" max="11" width="3.81640625" style="3" customWidth="1"/>
     <col min="12" max="12" width="13.7265625" style="3" customWidth="1"/>
@@ -5002,7 +5109,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>32</v>
@@ -5029,17 +5136,19 @@
         <v>2002</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>128</v>
+      </c>
       <c r="F3" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -5066,17 +5175,19 @@
         <v>2003</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F4" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -5103,17 +5214,19 @@
         <v>2004</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F5" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>0</v>
@@ -5140,18 +5253,20 @@
         <v>2005</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>0</v>
@@ -5175,18 +5290,20 @@
         <v>2006</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H7" s="19" t="s">
         <v>0</v>
@@ -5210,13 +5327,17 @@
         <v>2007</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+        <v>139</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="F8" s="19" t="s">
         <v>0</v>
       </c>
@@ -5224,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>0</v>
@@ -5245,13 +5366,17 @@
         <v>2008</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+        <v>139</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="F9" s="19" t="s">
         <v>0</v>
       </c>
@@ -5259,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>0</v>
@@ -5280,17 +5405,19 @@
         <v>2009</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E10" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F10" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>0</v>
@@ -5317,17 +5444,19 @@
         <v>2010</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F11" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>0</v>
@@ -5354,17 +5483,19 @@
         <v>2011</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F12" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>0</v>
@@ -5391,17 +5522,19 @@
         <v>2012</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F13" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>0</v>
@@ -5428,17 +5561,19 @@
         <v>2013</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F14" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>0</v>
@@ -5465,17 +5600,19 @@
         <v>2014</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F15" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G15" s="19" t="s">
         <v>0</v>
@@ -5502,17 +5639,19 @@
         <v>2015</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F16" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>0</v>
@@ -5539,17 +5678,19 @@
         <v>2016</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="F17" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>0</v>
@@ -5576,17 +5717,19 @@
         <v>2017</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E18" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="F18" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>0</v>
@@ -5613,17 +5756,19 @@
         <v>2018</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>132</v>
+      </c>
       <c r="F19" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>0</v>
@@ -5650,17 +5795,19 @@
         <v>2018</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="F20" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G20" s="19" t="s">
         <v>0</v>
@@ -5687,17 +5834,19 @@
         <v>2018</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="F21" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G21" s="19" t="s">
         <v>0</v>
@@ -5724,17 +5873,19 @@
         <v>2019</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>132</v>
+      </c>
       <c r="F22" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G22" s="19" t="s">
         <v>0</v>
@@ -5761,17 +5912,19 @@
         <v>2019</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E23" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="F23" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G23" s="19" t="s">
         <v>0</v>
@@ -5792,6 +5945,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="3"/>
+      <c r="D25" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5838,7 +5995,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="63" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5855,7 +6012,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="62" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5872,7 +6029,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="61" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5901,7 +6058,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="60" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5918,7 +6075,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="59" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5935,7 +6092,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="58" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5952,7 +6109,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="57" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6012,22 +6169,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="36.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.6328125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.6328125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="18.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.6328125" style="3" customWidth="1"/>
     <col min="6" max="8" width="12.453125" style="3" customWidth="1"/>
     <col min="9" max="11" width="3.81640625" style="3" customWidth="1"/>
     <col min="12" max="12" width="13.7265625" style="3" customWidth="1"/>
@@ -6067,7 +6224,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>32</v>
@@ -6094,17 +6251,19 @@
         <v>2002</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>128</v>
+      </c>
       <c r="F3" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -6132,17 +6291,19 @@
         <v>2003</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F4" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -6170,17 +6331,19 @@
         <v>2004</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F5" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>0</v>
@@ -6207,18 +6370,20 @@
         <v>2005</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>0</v>
@@ -6242,18 +6407,20 @@
         <v>2006</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" s="19" t="s">
         <v>0</v>
@@ -6277,13 +6444,17 @@
         <v>2007</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+        <v>139</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="F8" s="19" t="s">
         <v>0</v>
       </c>
@@ -6291,7 +6462,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>0</v>
@@ -6312,13 +6483,17 @@
         <v>2008</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+        <v>139</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="F9" s="19" t="s">
         <v>0</v>
       </c>
@@ -6326,7 +6501,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>0</v>
@@ -6347,17 +6522,19 @@
         <v>2009</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E10" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F10" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>0</v>
@@ -6384,17 +6561,19 @@
         <v>2010</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F11" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>0</v>
@@ -6421,17 +6600,19 @@
         <v>2011</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F12" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>0</v>
@@ -6458,17 +6639,19 @@
         <v>2012</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F13" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>0</v>
@@ -6495,17 +6678,19 @@
         <v>2013</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F14" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>0</v>
@@ -6532,17 +6717,19 @@
         <v>2014</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F15" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15" s="19" t="s">
         <v>0</v>
@@ -6569,17 +6756,19 @@
         <v>2015</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F16" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>0</v>
@@ -6606,17 +6795,19 @@
         <v>2016</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="F17" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>0</v>
@@ -6643,17 +6834,19 @@
         <v>2017</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E18" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="F18" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>0</v>
@@ -6680,17 +6873,19 @@
         <v>2018</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>132</v>
+      </c>
       <c r="F19" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>0</v>
@@ -6717,17 +6912,19 @@
         <v>2018</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="F20" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G20" s="19" t="s">
         <v>0</v>
@@ -6754,17 +6951,19 @@
         <v>2018</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="F21" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G21" s="19" t="s">
         <v>0</v>
@@ -6791,17 +6990,19 @@
         <v>2019</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>132</v>
+      </c>
       <c r="F22" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G22" s="19" t="s">
         <v>0</v>
@@ -6828,17 +7029,19 @@
         <v>2019</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E23" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="F23" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G23" s="19" t="s">
         <v>0</v>
@@ -6859,6 +7062,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="3"/>
+      <c r="D24" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6893,7 +7100,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6922,7 +7129,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="52" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6939,7 +7146,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="51" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6956,7 +7163,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="50" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6973,7 +7180,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="49" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6990,7 +7197,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="48" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7007,7 +7214,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="47" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7079,22 +7286,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="36.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.6328125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.6328125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="18.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.6328125" style="3" customWidth="1"/>
     <col min="6" max="8" width="12.453125" style="3" customWidth="1"/>
     <col min="9" max="11" width="3.81640625" style="3" customWidth="1"/>
     <col min="12" max="12" width="13.7265625" style="3" customWidth="1"/>
@@ -7134,7 +7341,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>32</v>
@@ -7161,17 +7368,19 @@
         <v>2002</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>128</v>
+      </c>
       <c r="F3" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -7199,17 +7408,19 @@
         <v>2003</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F4" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -7237,17 +7448,19 @@
         <v>2004</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F5" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>0</v>
@@ -7274,18 +7487,20 @@
         <v>2005</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>0</v>
@@ -7309,18 +7524,20 @@
         <v>2006</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H7" s="19" t="s">
         <v>0</v>
@@ -7344,13 +7561,17 @@
         <v>2007</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+        <v>139</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="F8" s="19" t="s">
         <v>0</v>
       </c>
@@ -7358,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>0</v>
@@ -7379,13 +7600,17 @@
         <v>2008</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+        <v>139</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="F9" s="19" t="s">
         <v>0</v>
       </c>
@@ -7393,7 +7618,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>0</v>
@@ -7414,17 +7639,19 @@
         <v>2009</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E10" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F10" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>0</v>
@@ -7451,17 +7678,19 @@
         <v>2010</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F11" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>0</v>
@@ -7488,17 +7717,19 @@
         <v>2011</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F12" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>0</v>
@@ -7525,17 +7756,19 @@
         <v>2012</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F13" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>0</v>
@@ -7562,17 +7795,19 @@
         <v>2013</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F14" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>0</v>
@@ -7599,17 +7834,19 @@
         <v>2014</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F15" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G15" s="19" t="s">
         <v>0</v>
@@ -7636,17 +7873,19 @@
         <v>2015</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F16" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>0</v>
@@ -7673,17 +7912,19 @@
         <v>2016</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="F17" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>0</v>
@@ -7710,17 +7951,19 @@
         <v>2017</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E18" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="F18" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>0</v>
@@ -7747,17 +7990,19 @@
         <v>2018</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>132</v>
+      </c>
       <c r="F19" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>0</v>
@@ -7784,17 +8029,19 @@
         <v>2018</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="F20" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G20" s="19" t="s">
         <v>0</v>
@@ -7821,17 +8068,19 @@
         <v>2018</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="F21" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G21" s="19" t="s">
         <v>0</v>
@@ -7858,17 +8107,19 @@
         <v>2019</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>132</v>
+      </c>
       <c r="F22" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G22" s="19" t="s">
         <v>0</v>
@@ -7895,17 +8146,19 @@
         <v>2019</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E23" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="F23" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G23" s="19" t="s">
         <v>0</v>
@@ -7926,6 +8179,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="3"/>
+      <c r="D26" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7972,7 +8229,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="43" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7989,7 +8246,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="42" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8006,7 +8263,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="41" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8035,7 +8292,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="40" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8052,7 +8309,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="39" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8069,7 +8326,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8086,7 +8343,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8146,22 +8403,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="36.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.6328125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.6328125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="18.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.6328125" style="3" customWidth="1"/>
     <col min="6" max="8" width="12.453125" style="3" customWidth="1"/>
     <col min="9" max="11" width="3.81640625" style="3" customWidth="1"/>
     <col min="12" max="12" width="13.7265625" style="3" customWidth="1"/>
@@ -8201,7 +8458,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>32</v>
@@ -8228,17 +8485,19 @@
         <v>2002</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>128</v>
+      </c>
       <c r="F3" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -8266,17 +8525,19 @@
         <v>2003</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F4" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -8304,17 +8565,19 @@
         <v>2004</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F5" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>0</v>
@@ -8341,18 +8604,20 @@
         <v>2005</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>0</v>
@@ -8376,18 +8641,20 @@
         <v>2006</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H7" s="19" t="s">
         <v>0</v>
@@ -8411,13 +8678,17 @@
         <v>2007</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+        <v>139</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="F8" s="19" t="s">
         <v>0</v>
       </c>
@@ -8425,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>0</v>
@@ -8446,13 +8717,17 @@
         <v>2008</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+        <v>139</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="F9" s="19" t="s">
         <v>0</v>
       </c>
@@ -8460,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>0</v>
@@ -8481,17 +8756,19 @@
         <v>2009</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E10" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F10" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>0</v>
@@ -8518,17 +8795,19 @@
         <v>2010</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F11" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>0</v>
@@ -8555,17 +8834,19 @@
         <v>2011</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F12" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>0</v>
@@ -8592,17 +8873,19 @@
         <v>2012</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F13" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>0</v>
@@ -8629,17 +8912,19 @@
         <v>2013</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F14" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>0</v>
@@ -8666,17 +8951,19 @@
         <v>2014</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F15" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G15" s="19" t="s">
         <v>0</v>
@@ -8703,17 +8990,19 @@
         <v>2015</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F16" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>0</v>
@@ -8740,17 +9029,19 @@
         <v>2016</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="F17" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>0</v>
@@ -8777,17 +9068,19 @@
         <v>2017</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E18" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="F18" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>0</v>
@@ -8814,17 +9107,19 @@
         <v>2018</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>132</v>
+      </c>
       <c r="F19" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>0</v>
@@ -8851,17 +9146,19 @@
         <v>2018</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="F20" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G20" s="19" t="s">
         <v>0</v>
@@ -8888,17 +9185,19 @@
         <v>2018</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="F21" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G21" s="19" t="s">
         <v>0</v>
@@ -8925,17 +9224,19 @@
         <v>2019</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>132</v>
+      </c>
       <c r="F22" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G22" s="19" t="s">
         <v>0</v>
@@ -8962,17 +9263,19 @@
         <v>2019</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E23" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="F23" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G23" s="19" t="s">
         <v>0</v>
@@ -8993,6 +9296,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="3"/>
+      <c r="D25" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9039,7 +9346,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="33" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9056,7 +9363,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="32" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9073,7 +9380,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="31" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9102,7 +9409,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="30" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9119,7 +9426,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9136,7 +9443,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="28" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9153,7 +9460,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9213,22 +9520,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B3:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="36.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.6328125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.6328125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="18.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.6328125" style="3" customWidth="1"/>
     <col min="6" max="8" width="12.453125" style="3" customWidth="1"/>
     <col min="9" max="11" width="3.81640625" style="3" customWidth="1"/>
     <col min="12" max="12" width="13.7265625" style="3" customWidth="1"/>
@@ -9268,7 +9575,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>32</v>
@@ -9295,17 +9602,19 @@
         <v>2002</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>128</v>
+      </c>
       <c r="F3" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -9332,17 +9641,19 @@
         <v>2003</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F4" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -9369,17 +9680,19 @@
         <v>2004</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F5" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>0</v>
@@ -9406,18 +9719,20 @@
         <v>2005</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>0</v>
@@ -9441,18 +9756,20 @@
         <v>2006</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H7" s="19" t="s">
         <v>0</v>
@@ -9476,13 +9793,17 @@
         <v>2007</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+        <v>139</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="F8" s="19" t="s">
         <v>0</v>
       </c>
@@ -9490,7 +9811,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>0</v>
@@ -9511,13 +9832,17 @@
         <v>2008</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+        <v>139</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="F9" s="19" t="s">
         <v>0</v>
       </c>
@@ -9525,7 +9850,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>0</v>
@@ -9546,17 +9871,19 @@
         <v>2009</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E10" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F10" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>0</v>
@@ -9583,17 +9910,19 @@
         <v>2010</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F11" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>0</v>
@@ -9620,17 +9949,19 @@
         <v>2011</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F12" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>0</v>
@@ -9657,17 +9988,19 @@
         <v>2012</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F13" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>0</v>
@@ -9694,17 +10027,19 @@
         <v>2013</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F14" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>0</v>
@@ -9731,17 +10066,19 @@
         <v>2014</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F15" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15" s="19" t="s">
         <v>0</v>
@@ -9768,17 +10105,19 @@
         <v>2015</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F16" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>0</v>
@@ -9805,17 +10144,19 @@
         <v>2016</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="F17" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>0</v>
@@ -9842,17 +10183,19 @@
         <v>2017</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E18" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="F18" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>0</v>
@@ -9879,17 +10222,19 @@
         <v>2018</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>132</v>
+      </c>
       <c r="F19" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>0</v>
@@ -9916,17 +10261,19 @@
         <v>2018</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="F20" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G20" s="19" t="s">
         <v>0</v>
@@ -9953,17 +10300,19 @@
         <v>2018</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="F21" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G21" s="19" t="s">
         <v>0</v>
@@ -9990,17 +10339,19 @@
         <v>2019</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>132</v>
+      </c>
       <c r="F22" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G22" s="19" t="s">
         <v>0</v>
@@ -10027,17 +10378,19 @@
         <v>2019</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E23" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="F23" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G23" s="19" t="s">
         <v>0</v>
@@ -10058,6 +10411,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="3"/>
+      <c r="D25" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10104,7 +10461,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10121,7 +10478,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="22" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10138,7 +10495,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10167,7 +10524,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10184,7 +10541,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10201,7 +10558,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10218,7 +10575,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10278,28 +10635,29 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="36.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.6328125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" style="3" customWidth="1"/>
-    <col min="6" max="8" width="12.453125" style="3" customWidth="1"/>
-    <col min="9" max="11" width="3.81640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.6328125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="18.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.6328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="3" customWidth="1"/>
+    <col min="7" max="9" width="12.453125" style="3" customWidth="1"/>
+    <col min="10" max="12" width="3.81640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.7265625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -10310,20 +10668,21 @@
         <v>3</v>
       </c>
       <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="32"/>
       <c r="H1" s="32"/>
-      <c r="I1" s="36">
+      <c r="I1" s="32"/>
+      <c r="J1" s="36">
         <v>2</v>
       </c>
-      <c r="J1" s="35"/>
       <c r="K1" s="35"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L1" s="35"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="10" t="s">
@@ -10333,788 +10692,855 @@
         <v>6</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="I2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="J2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="K2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="L2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2002</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>0</v>
+      <c r="E3" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="H3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
         <v>2</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="K3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="17" t="str">
-        <f t="shared" ref="L3:L25" si="0">IF(OR(AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="L3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="17" t="str">
+        <f t="shared" ref="M3:M25" si="0">IF(OR(AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>2002</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>129</v>
-      </c>
       <c r="E4" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="F4" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>0</v>
-      </c>
       <c r="H4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="I4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>2002</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>129</v>
-      </c>
       <c r="E5" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="19" t="s">
-        <v>0</v>
-      </c>
       <c r="H5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="I5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>2003</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>0</v>
+      <c r="E6" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="I6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>2004</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>0</v>
+      <c r="E7" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="H7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="I7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L7" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>2005</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F8" s="9"/>
+      <c r="G8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>2006</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L9" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F9" s="9"/>
+      <c r="G9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>2007</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="19" t="s">
-        <v>0</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="9"/>
       <c r="G10" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>0</v>
+      <c r="H10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>2008</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="19" t="s">
-        <v>0</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="9"/>
       <c r="G11" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>0</v>
+      <c r="H11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>2009</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="H12" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="I12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
         <v>0</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L12" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>2010</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1" t="s">
+      <c r="I13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
         <v>0</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>2011</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="H14" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
         <v>1</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="K14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>2012</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="H15" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="I15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
         <v>0</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L15" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>2013</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="H16" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1" t="s">
+      <c r="I16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
         <v>0</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L16" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>2014</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="H17" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="I17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
         <v>0</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L17" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>2015</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="H18" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1" t="s">
+      <c r="I18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
         <v>0</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>2016</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="H19" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1" t="s">
+      <c r="I19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
         <v>0</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L19" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>2017</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="H20" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1" t="s">
+      <c r="I20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
         <v>0</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L20" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>2018</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="H21" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1" t="s">
+      <c r="I21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
         <v>0</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L21" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>2018</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="18" t="s">
+        <v>134</v>
       </c>
       <c r="H22" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I22" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1" t="s">
+      <c r="I22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="25" t="s">
         <v>0</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L22" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>2018</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="18" t="s">
+        <v>133</v>
       </c>
       <c r="H23" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I23" s="25" t="s">
+      <c r="I23" s="19" t="s">
         <v>0</v>
       </c>
       <c r="J23" s="25" t="s">
@@ -11123,72 +11549,78 @@
       <c r="K23" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="L23" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L23" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="M23" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>2019</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="H24" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="25" t="s">
+      <c r="I24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
         <v>0</v>
       </c>
       <c r="K24" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="L24" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L24" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="M24" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>2019</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="18" t="s">
+        <v>135</v>
       </c>
       <c r="H25" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I25" s="25" t="s">
+      <c r="I25" s="19" t="s">
         <v>0</v>
       </c>
       <c r="J25" s="25" t="s">
@@ -11197,7 +11629,10 @@
       <c r="K25" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="L25" s="17" t="str">
+      <c r="L25" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="M25" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11206,11 +11641,11 @@
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="C1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I3:K3 I4 J4:K5">
+  <conditionalFormatting sqref="J3:L3 J4 K4:L5">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11222,7 +11657,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6:K21 J22:K22">
+  <conditionalFormatting sqref="J6:L21 K22:L22">
     <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11234,7 +11669,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
+  <conditionalFormatting sqref="J5">
     <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11246,7 +11681,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23:K23">
+  <conditionalFormatting sqref="J23:L23">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11258,12 +11693,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23:K23">
-    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J23:L23">
+    <cfRule type="containsText" dxfId="10" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24">
+  <conditionalFormatting sqref="K24">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11275,12 +11710,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24">
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="*-">
+  <conditionalFormatting sqref="K24">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
+  <conditionalFormatting sqref="L24">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11292,12 +11727,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="*-">
+  <conditionalFormatting sqref="L24">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
+  <conditionalFormatting sqref="J24">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11309,7 +11744,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
+  <conditionalFormatting sqref="K25">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11321,12 +11756,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="*-">
+  <conditionalFormatting sqref="K25">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
+  <conditionalFormatting sqref="L25">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11338,12 +11773,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="*-">
+  <conditionalFormatting sqref="L25">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
+  <conditionalFormatting sqref="J22">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11355,12 +11790,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J22">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
+  <conditionalFormatting sqref="J25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11372,8 +11807,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J25">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11395,7 +11830,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I3:K3 I4 J4:K5</xm:sqref>
+          <xm:sqref>J3:L3 J4 K4:L5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="97" operator="containsText" text="*-" id="{95C465FF-CE2B-42D0-B46C-CD9B3B394EA2}">
@@ -11409,7 +11844,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I6:K21 J22:K22</xm:sqref>
+          <xm:sqref>J6:L21 K22:L22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="113" operator="containsText" text="*-" id="{95C465FF-CE2B-42D0-B46C-CD9B3B394EA2}">
@@ -11423,7 +11858,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I5</xm:sqref>
+          <xm:sqref>J5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="17" operator="containsText" text="*-" id="{DB203A13-BF1F-4DC4-B6DC-C2FB9CBCC828}">
@@ -11437,7 +11872,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I24</xm:sqref>
+          <xm:sqref>J24</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Collections/EURO/Luxembourg/#EURO#Luxembourg#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Luxembourg/#EURO#Luxembourg#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Luxembourg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Luxembourg\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DB4AA0-1336-46F4-BDB0-4D12A369262D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="2€" sheetId="12" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -69,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -85,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -101,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -117,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -138,12 +139,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -159,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -175,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -191,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -207,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -223,7 +224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -244,12 +245,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -265,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -281,7 +282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -297,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -313,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -329,7 +330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -350,12 +351,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -371,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -387,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -403,7 +404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -419,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -435,7 +436,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -456,12 +457,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -477,7 +478,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -493,7 +494,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -509,7 +510,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -525,7 +526,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -541,7 +542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -562,12 +563,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -583,7 +584,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -599,7 +600,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -615,7 +616,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -631,7 +632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -647,7 +648,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -668,12 +669,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -689,7 +690,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -705,7 +706,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -721,7 +722,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -737,7 +738,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000005000000}">
       <text>
         <r>
           <rPr>
@@ -753,7 +754,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000006000000}">
       <text>
         <r>
           <rPr>
@@ -774,12 +775,12 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -795,7 +796,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -811,7 +812,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
@@ -827,7 +828,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
       <text>
         <r>
           <rPr>
@@ -843,7 +844,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000005000000}">
       <text>
         <r>
           <rPr>
@@ -859,7 +860,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000006000000}">
       <text>
         <r>
           <rPr>
@@ -880,7 +881,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="147">
   <si>
     <t>-</t>
   </si>
@@ -1310,12 +1311,24 @@
   </si>
   <si>
     <t>Subtype_4</t>
+  </si>
+  <si>
+    <t>61.000</t>
+  </si>
+  <si>
+    <t>2.061.000</t>
+  </si>
+  <si>
+    <t>1.561.000</t>
+  </si>
+  <si>
+    <t>Obv: St. Servatius Bridge instead of mint symbol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
   </numFmts>
@@ -1646,121 +1659,9 @@
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="95">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="173">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2393,6 +2294,742 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2418,16 +3055,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="94"/>
-    <tableColumn id="2" name="Link" dataDxfId="93" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="92"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="79" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2695,29 +3332,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.6328125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="18.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="36.6328125" style="3" customWidth="1"/>
-    <col min="6" max="8" width="12.453125" style="3" customWidth="1"/>
-    <col min="9" max="11" width="3.81640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
+    <col min="6" max="8" width="12.42578125" style="3" customWidth="1"/>
+    <col min="9" max="11" width="3.85546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -2741,7 +3378,7 @@
       <c r="K1" s="35"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="10" t="s">
@@ -2773,7 +3410,7 @@
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2002</v>
       </c>
@@ -2812,7 +3449,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2003</v>
       </c>
@@ -2851,7 +3488,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2004</v>
       </c>
@@ -2890,7 +3527,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2005</v>
       </c>
@@ -2927,7 +3564,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>2006</v>
       </c>
@@ -2964,7 +3601,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>2007</v>
       </c>
@@ -3003,7 +3640,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2008</v>
       </c>
@@ -3042,7 +3679,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>2009</v>
       </c>
@@ -3081,7 +3718,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>2010</v>
       </c>
@@ -3120,7 +3757,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>2011</v>
       </c>
@@ -3159,7 +3796,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>2012</v>
       </c>
@@ -3198,7 +3835,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>2013</v>
       </c>
@@ -3237,7 +3874,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>2014</v>
       </c>
@@ -3276,7 +3913,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>2015</v>
       </c>
@@ -3315,7 +3952,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>2016</v>
       </c>
@@ -3354,7 +3991,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>2017</v>
       </c>
@@ -3393,7 +4030,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>2018</v>
       </c>
@@ -3432,7 +4069,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>2018</v>
       </c>
@@ -3471,7 +4108,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>2018</v>
       </c>
@@ -3510,7 +4147,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>2019</v>
       </c>
@@ -3549,7 +4186,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>2019</v>
       </c>
@@ -3588,9 +4225,122 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="3"/>
-      <c r="D24" s="24"/>
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L24" s="17" t="str">
+        <f t="shared" ref="L24" si="1">IF(OR(AND(I24&gt;1,I24&lt;&gt;"-"),AND(J24&gt;1,J24&lt;&gt;"-"),AND(K24&gt;1,K24&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L25" s="17" t="str">
+        <f t="shared" ref="L25:L26" si="2">IF(OR(AND(I25&gt;1,I25&lt;&gt;"-"),AND(J25&gt;1,J25&lt;&gt;"-"),AND(K25&gt;1,K25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3601,10 +4351,10 @@
     <mergeCell ref="I1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:I5 I10:I18">
-    <cfRule type="containsText" dxfId="91" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="172" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="68">
+    <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3616,10 +4366,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J7">
-    <cfRule type="containsText" dxfId="90" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="171" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="64">
+    <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3631,9 +4381,171 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="89" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="170" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
     </cfRule>
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:K9">
+    <cfRule type="containsText" dxfId="169" priority="79" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="containsText" dxfId="168" priority="57" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I8))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="containsText" dxfId="167" priority="55" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I9))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:J18">
+    <cfRule type="containsText" dxfId="166" priority="53" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J8))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5 J3">
+    <cfRule type="containsText" dxfId="165" priority="49" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="containsText" dxfId="164" priority="47" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10:K18">
+    <cfRule type="containsText" dxfId="163" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K10))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="containsText" dxfId="162" priority="59" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I7))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K7">
+    <cfRule type="containsText" dxfId="161" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:K19 J20:K20">
+    <cfRule type="containsText" dxfId="160" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:K21">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3645,25 +4557,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K9">
-    <cfRule type="containsText" dxfId="88" priority="57" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="containsText" dxfId="87" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I8))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="I21:K21">
+    <cfRule type="containsText" dxfId="159" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3675,10 +4574,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="containsText" dxfId="86" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I9))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="containsText" dxfId="158" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3690,10 +4591,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:J18">
-    <cfRule type="containsText" dxfId="85" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J8))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="K22">
+    <cfRule type="containsText" dxfId="157" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="containsText" dxfId="156" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3705,25 +4623,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3 J5">
-    <cfRule type="containsText" dxfId="84" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="83" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="containsText" dxfId="155" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="containsText" dxfId="154" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3735,10 +4657,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:K18">
-    <cfRule type="containsText" dxfId="82" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K10))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="containsText" dxfId="153" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3750,24 +4674,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="containsText" dxfId="81" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I7))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K7">
-    <cfRule type="containsText" dxfId="80" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="containsText" dxfId="152" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="containsText" dxfId="77" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
       <colorScale>
@@ -3780,9 +4694,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19:K19 J20:K20">
-    <cfRule type="containsText" dxfId="79" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
+  <conditionalFormatting sqref="J24">
+    <cfRule type="containsText" dxfId="76" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
       <colorScale>
@@ -3795,7 +4709,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:K21">
+  <conditionalFormatting sqref="K24">
+    <cfRule type="containsText" dxfId="75" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K24))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3807,95 +4724,72 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="78" priority="17" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J25">
+    <cfRule type="containsText" dxfId="73" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
+    <cfRule type="containsText" dxfId="72" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="containsText" dxfId="71" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="77" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="76" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="containsText" dxfId="75" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="74" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="73" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
+  <conditionalFormatting sqref="J26">
+    <cfRule type="containsText" dxfId="69" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
+    <cfRule type="containsText" dxfId="68" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3907,12 +4801,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="72" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
+  <conditionalFormatting sqref="I26">
+    <cfRule type="containsText" dxfId="57" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3922,11 +4814,6 @@
         <color rgb="FFD1E0B2"/>
         <color rgb="FF00B050"/>
       </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3936,29 +4823,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B23"/>
+      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.6328125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="18.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="36.6328125" style="3" customWidth="1"/>
-    <col min="6" max="8" width="12.453125" style="3" customWidth="1"/>
-    <col min="9" max="11" width="3.81640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
+    <col min="6" max="8" width="12.42578125" style="3" customWidth="1"/>
+    <col min="9" max="11" width="3.85546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -3982,7 +4869,7 @@
       <c r="K1" s="35"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="10" t="s">
@@ -4014,7 +4901,7 @@
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2002</v>
       </c>
@@ -4054,7 +4941,7 @@
       </c>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2003</v>
       </c>
@@ -4089,12 +4976,12 @@
         <v>0</v>
       </c>
       <c r="L4" s="17" t="str">
-        <f t="shared" ref="L4:L23" si="0">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="L4:L26" si="0">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2004</v>
       </c>
@@ -4133,7 +5020,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2005</v>
       </c>
@@ -4170,7 +5057,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>2006</v>
       </c>
@@ -4207,7 +5094,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>2007</v>
       </c>
@@ -4246,7 +5133,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2008</v>
       </c>
@@ -4285,7 +5172,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>2009</v>
       </c>
@@ -4324,7 +5211,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>2010</v>
       </c>
@@ -4363,7 +5250,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>2011</v>
       </c>
@@ -4402,7 +5289,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>2012</v>
       </c>
@@ -4441,7 +5328,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>2013</v>
       </c>
@@ -4480,7 +5367,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>2014</v>
       </c>
@@ -4519,7 +5406,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>2015</v>
       </c>
@@ -4558,7 +5445,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>2016</v>
       </c>
@@ -4597,7 +5484,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>2017</v>
       </c>
@@ -4636,7 +5523,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>2018</v>
       </c>
@@ -4675,7 +5562,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>2018</v>
       </c>
@@ -4714,7 +5601,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>2018</v>
       </c>
@@ -4753,7 +5640,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>2019</v>
       </c>
@@ -4792,7 +5679,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>2019</v>
       </c>
@@ -4831,9 +5718,122 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="3"/>
-      <c r="D24" s="24"/>
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L24" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L25" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4844,7 +5844,7 @@
     <mergeCell ref="I1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:K18">
-    <cfRule type="colorScale" priority="44">
+    <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -4856,6 +5856,152 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:K19 J20:K20">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:K21">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:K21">
+    <cfRule type="containsText" dxfId="151" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="containsText" dxfId="150" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
+    <cfRule type="containsText" dxfId="149" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="containsText" dxfId="148" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="containsText" dxfId="147" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="containsText" dxfId="146" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="containsText" dxfId="145" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="containsText" dxfId="67" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4867,7 +6013,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:K21">
+  <conditionalFormatting sqref="J24">
+    <cfRule type="containsText" dxfId="66" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J24))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4879,92 +6028,87 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="70" priority="17" operator="containsText" text="*-">
+  <conditionalFormatting sqref="K24">
+    <cfRule type="containsText" dxfId="65" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K24))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
+    <cfRule type="containsText" dxfId="64" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
+    <cfRule type="containsText" dxfId="63" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="containsText" dxfId="62" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="69" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="68" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="67" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="66" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
+  <conditionalFormatting sqref="J26">
+    <cfRule type="containsText" dxfId="60" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
+    <cfRule type="containsText" dxfId="59" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4976,12 +6120,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="65" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
+  <conditionalFormatting sqref="I26">
+    <cfRule type="containsText" dxfId="58" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4991,11 +6133,6 @@
         <color rgb="FFD1E0B2"/>
         <color rgb="FF00B050"/>
       </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="64" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5005,7 +6142,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="43" operator="containsText" text="*-" id="{FB2123A3-261C-4532-930A-123C356F762F}">
+          <x14:cfRule type="containsText" priority="63" operator="containsText" text="*-" id="{FB2123A3-261C-4532-930A-123C356F762F}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I3))))</xm:f>
             <x14:dxf>
               <fill>
@@ -5019,7 +6156,7 @@
           <xm:sqref>I3:K18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="19" operator="containsText" text="*-" id="{7A9B2D59-0E07-4CD8-9FFF-ADD654D6476E}">
+          <x14:cfRule type="containsText" priority="39" operator="containsText" text="*-" id="{7A9B2D59-0E07-4CD8-9FFF-ADD654D6476E}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I17))))</xm:f>
             <x14:dxf>
               <fill>
@@ -5033,7 +6170,7 @@
           <xm:sqref>I19:K19 J20:K20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="15" operator="containsText" text="*-" id="{B48ED3C7-4981-4BC1-9797-38D42593941B}">
+          <x14:cfRule type="containsText" priority="35" operator="containsText" text="*-" id="{B48ED3C7-4981-4BC1-9797-38D42593941B}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I16))))</xm:f>
             <x14:dxf>
               <fill>
@@ -5053,29 +6190,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B23"/>
+      <selection pane="bottomRight" activeCell="L26" sqref="A24:L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.6328125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="18.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="36.6328125" style="3" customWidth="1"/>
-    <col min="6" max="8" width="12.453125" style="3" customWidth="1"/>
-    <col min="9" max="11" width="3.81640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
+    <col min="6" max="8" width="12.42578125" style="3" customWidth="1"/>
+    <col min="9" max="11" width="3.85546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -5099,7 +6236,7 @@
       <c r="K1" s="35"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="10" t="s">
@@ -5131,7 +6268,7 @@
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2002</v>
       </c>
@@ -5170,7 +6307,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2003</v>
       </c>
@@ -5205,11 +6342,11 @@
         <v>0</v>
       </c>
       <c r="L4" s="17" t="str">
-        <f t="shared" ref="L4:L23" si="0">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="L4:L26" si="0">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2004</v>
       </c>
@@ -5248,7 +6385,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2005</v>
       </c>
@@ -5285,7 +6422,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>2006</v>
       </c>
@@ -5322,7 +6459,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>2007</v>
       </c>
@@ -5361,7 +6498,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2008</v>
       </c>
@@ -5400,7 +6537,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>2009</v>
       </c>
@@ -5439,7 +6576,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>2010</v>
       </c>
@@ -5478,7 +6615,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>2011</v>
       </c>
@@ -5517,7 +6654,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>2012</v>
       </c>
@@ -5556,7 +6693,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>2013</v>
       </c>
@@ -5595,7 +6732,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>2014</v>
       </c>
@@ -5634,7 +6771,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>2015</v>
       </c>
@@ -5673,7 +6810,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>2016</v>
       </c>
@@ -5712,7 +6849,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>2017</v>
       </c>
@@ -5751,7 +6888,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>2018</v>
       </c>
@@ -5790,7 +6927,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>2018</v>
       </c>
@@ -5829,7 +6966,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>2018</v>
       </c>
@@ -5868,7 +7005,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>2019</v>
       </c>
@@ -5907,7 +7044,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>2019</v>
       </c>
@@ -5946,9 +7083,122 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="3"/>
-      <c r="D25" s="24"/>
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L24" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L25" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5959,6 +7209,127 @@
     <mergeCell ref="I1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:K18">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:K19 J20:K20">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:K21">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:K21">
+    <cfRule type="containsText" dxfId="141" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="containsText" dxfId="140" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
+    <cfRule type="containsText" dxfId="139" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="containsText" dxfId="138" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="containsText" dxfId="137" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5970,7 +7341,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19:K19 J20:K20">
+  <conditionalFormatting sqref="I20">
+    <cfRule type="containsText" dxfId="136" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5982,7 +7358,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:K21">
+  <conditionalFormatting sqref="I23">
+    <cfRule type="containsText" dxfId="135" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="containsText" dxfId="56" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5994,92 +7378,102 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="60" priority="17" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J24">
+    <cfRule type="containsText" dxfId="55" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J24))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
+    <cfRule type="containsText" dxfId="54" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K24))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
+    <cfRule type="containsText" dxfId="53" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
+    <cfRule type="containsText" dxfId="52" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="containsText" dxfId="51" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="59" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="58" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="57" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="56" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
+  <conditionalFormatting sqref="J26">
+    <cfRule type="containsText" dxfId="50" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
+    <cfRule type="containsText" dxfId="49" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6091,12 +7485,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="55" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
+  <conditionalFormatting sqref="I26">
+    <cfRule type="containsText" dxfId="48" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6106,11 +7498,6 @@
         <color rgb="FFD1E0B2"/>
         <color rgb="FF00B050"/>
       </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="54" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6120,7 +7507,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="21" operator="containsText" text="*-" id="{2584AC74-A7F2-46ED-B7FA-60652149F404}">
+          <x14:cfRule type="containsText" priority="39" operator="containsText" text="*-" id="{2584AC74-A7F2-46ED-B7FA-60652149F404}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I3))))</xm:f>
             <x14:dxf>
               <fill>
@@ -6134,7 +7521,7 @@
           <xm:sqref>I3:K18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="19" operator="containsText" text="*-" id="{C3028698-34CD-465F-9646-7FC669620911}">
+          <x14:cfRule type="containsText" priority="37" operator="containsText" text="*-" id="{C3028698-34CD-465F-9646-7FC669620911}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I17))))</xm:f>
             <x14:dxf>
               <fill>
@@ -6148,7 +7535,7 @@
           <xm:sqref>I19:K19 J20:K20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="15" operator="containsText" text="*-" id="{A34E8E83-9659-43D8-A98C-3D374C8E372C}">
+          <x14:cfRule type="containsText" priority="33" operator="containsText" text="*-" id="{A34E8E83-9659-43D8-A98C-3D374C8E372C}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I16))))</xm:f>
             <x14:dxf>
               <fill>
@@ -6168,29 +7555,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B23"/>
+      <selection pane="bottomRight" activeCell="L26" sqref="A24:L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.6328125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="18.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="36.6328125" style="3" customWidth="1"/>
-    <col min="6" max="8" width="12.453125" style="3" customWidth="1"/>
-    <col min="9" max="11" width="3.81640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
+    <col min="6" max="8" width="12.42578125" style="3" customWidth="1"/>
+    <col min="9" max="11" width="3.85546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -6214,7 +7601,7 @@
       <c r="K1" s="35"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="10" t="s">
@@ -6246,7 +7633,7 @@
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2002</v>
       </c>
@@ -6286,7 +7673,7 @@
       </c>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2003</v>
       </c>
@@ -6321,12 +7708,12 @@
         <v>0</v>
       </c>
       <c r="L4" s="17" t="str">
-        <f t="shared" ref="L4:L23" si="0">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="L4:L26" si="0">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2004</v>
       </c>
@@ -6365,7 +7752,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2005</v>
       </c>
@@ -6402,7 +7789,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>2006</v>
       </c>
@@ -6439,7 +7826,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>2007</v>
       </c>
@@ -6478,7 +7865,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2008</v>
       </c>
@@ -6517,7 +7904,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>2009</v>
       </c>
@@ -6556,7 +7943,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>2010</v>
       </c>
@@ -6595,7 +7982,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>2011</v>
       </c>
@@ -6634,7 +8021,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>2012</v>
       </c>
@@ -6673,7 +8060,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>2013</v>
       </c>
@@ -6712,7 +8099,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>2014</v>
       </c>
@@ -6751,7 +8138,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>2015</v>
       </c>
@@ -6790,7 +8177,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>2016</v>
       </c>
@@ -6829,7 +8216,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>2017</v>
       </c>
@@ -6868,7 +8255,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>2018</v>
       </c>
@@ -6907,7 +8294,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>2018</v>
       </c>
@@ -6946,7 +8333,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>2018</v>
       </c>
@@ -6985,7 +8372,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>2019</v>
       </c>
@@ -7024,7 +8411,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>2019</v>
       </c>
@@ -7063,9 +8450,122 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="3"/>
-      <c r="D24" s="24"/>
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L24" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L25" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7076,6 +8576,132 @@
     <mergeCell ref="I1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:K18">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:K19 J20:K20">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="containsText" dxfId="131" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:K21">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:K21">
+    <cfRule type="containsText" dxfId="130" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="containsText" dxfId="129" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
+    <cfRule type="containsText" dxfId="128" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="containsText" dxfId="127" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="containsText" dxfId="126" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7087,139 +8713,150 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19:K19 J20:K20">
+  <conditionalFormatting sqref="I20">
+    <cfRule type="containsText" dxfId="125" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="containsText" dxfId="47" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24">
+    <cfRule type="containsText" dxfId="46" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J24))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
+    <cfRule type="containsText" dxfId="45" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K24))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
+    <cfRule type="containsText" dxfId="44" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
+    <cfRule type="containsText" dxfId="43" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="containsText" dxfId="42" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26">
+    <cfRule type="containsText" dxfId="41" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
+    <cfRule type="containsText" dxfId="40" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="containsText" dxfId="39" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="50" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21:K21">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="49" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="48" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="47" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="46" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="45" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="44" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -7237,7 +8874,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="21" operator="containsText" text="*-" id="{B6918180-CDCF-41DF-B2B6-A9DED0656946}">
+          <x14:cfRule type="containsText" priority="39" operator="containsText" text="*-" id="{B6918180-CDCF-41DF-B2B6-A9DED0656946}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I3))))</xm:f>
             <x14:dxf>
               <fill>
@@ -7251,7 +8888,7 @@
           <xm:sqref>I3:K18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="25" operator="containsText" text="*-" id="{5B8982D8-36F7-4976-8188-8AF74C616815}">
+          <x14:cfRule type="containsText" priority="43" operator="containsText" text="*-" id="{5B8982D8-36F7-4976-8188-8AF74C616815}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I17))))</xm:f>
             <x14:dxf>
               <fill>
@@ -7265,7 +8902,7 @@
           <xm:sqref>I19:K19 J20:K20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="26" operator="containsText" text="*-" id="{3FB0CFE8-7416-4808-BE46-48A7F1B09141}">
+          <x14:cfRule type="containsText" priority="44" operator="containsText" text="*-" id="{3FB0CFE8-7416-4808-BE46-48A7F1B09141}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I16))))</xm:f>
             <x14:dxf>
               <fill>
@@ -7285,29 +8922,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B23"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.6328125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="18.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="36.6328125" style="3" customWidth="1"/>
-    <col min="6" max="8" width="12.453125" style="3" customWidth="1"/>
-    <col min="9" max="11" width="3.81640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
+    <col min="6" max="8" width="12.42578125" style="3" customWidth="1"/>
+    <col min="9" max="11" width="3.85546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -7331,7 +8968,7 @@
       <c r="K1" s="35"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="10" t="s">
@@ -7363,7 +9000,7 @@
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2002</v>
       </c>
@@ -7403,7 +9040,7 @@
       </c>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2003</v>
       </c>
@@ -7438,12 +9075,12 @@
         <v>0</v>
       </c>
       <c r="L4" s="17" t="str">
-        <f t="shared" ref="L4:L23" si="0">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="L4:L26" si="0">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2004</v>
       </c>
@@ -7482,7 +9119,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2005</v>
       </c>
@@ -7519,7 +9156,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>2006</v>
       </c>
@@ -7556,7 +9193,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>2007</v>
       </c>
@@ -7595,7 +9232,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2008</v>
       </c>
@@ -7634,7 +9271,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>2009</v>
       </c>
@@ -7673,7 +9310,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>2010</v>
       </c>
@@ -7712,7 +9349,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>2011</v>
       </c>
@@ -7751,7 +9388,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>2012</v>
       </c>
@@ -7790,7 +9427,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>2013</v>
       </c>
@@ -7829,7 +9466,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>2014</v>
       </c>
@@ -7868,7 +9505,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>2015</v>
       </c>
@@ -7907,7 +9544,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>2016</v>
       </c>
@@ -7946,7 +9583,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>2017</v>
       </c>
@@ -7985,7 +9622,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>2018</v>
       </c>
@@ -8024,7 +9661,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>2018</v>
       </c>
@@ -8063,7 +9700,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>2018</v>
       </c>
@@ -8102,7 +9739,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>2019</v>
       </c>
@@ -8141,7 +9778,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>2019</v>
       </c>
@@ -8180,9 +9817,122 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="3"/>
-      <c r="D26" s="24"/>
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L24" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L25" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8193,6 +9943,127 @@
     <mergeCell ref="I1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:K18">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:K19 J20:K20">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:K21">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:K21">
+    <cfRule type="containsText" dxfId="121" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="containsText" dxfId="120" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
+    <cfRule type="containsText" dxfId="119" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="containsText" dxfId="118" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="containsText" dxfId="117" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8204,7 +10075,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19:K19 J20:K20">
+  <conditionalFormatting sqref="I20">
+    <cfRule type="containsText" dxfId="116" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8216,7 +10092,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:K21">
+  <conditionalFormatting sqref="I23">
+    <cfRule type="containsText" dxfId="115" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="containsText" dxfId="38" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8228,92 +10112,102 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="40" priority="17" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J24">
+    <cfRule type="containsText" dxfId="37" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J24))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
+    <cfRule type="containsText" dxfId="36" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K24))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
+    <cfRule type="containsText" dxfId="35" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
+    <cfRule type="containsText" dxfId="34" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="containsText" dxfId="33" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="39" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="38" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="37" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="36" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
+  <conditionalFormatting sqref="J26">
+    <cfRule type="containsText" dxfId="32" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
+    <cfRule type="containsText" dxfId="31" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8325,12 +10219,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
+  <conditionalFormatting sqref="I26">
+    <cfRule type="containsText" dxfId="30" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8340,11 +10232,6 @@
         <color rgb="FFD1E0B2"/>
         <color rgb="FF00B050"/>
       </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="34" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8354,7 +10241,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="21" operator="containsText" text="*-" id="{BBF6F006-7E15-4D0D-B32D-3010E0C313DD}">
+          <x14:cfRule type="containsText" priority="39" operator="containsText" text="*-" id="{BBF6F006-7E15-4D0D-B32D-3010E0C313DD}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I3))))</xm:f>
             <x14:dxf>
               <fill>
@@ -8368,7 +10255,7 @@
           <xm:sqref>I3:K18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="19" operator="containsText" text="*-" id="{4ADE7EDE-544F-4FF1-BD3D-4F2434D3B5E6}">
+          <x14:cfRule type="containsText" priority="37" operator="containsText" text="*-" id="{4ADE7EDE-544F-4FF1-BD3D-4F2434D3B5E6}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I17))))</xm:f>
             <x14:dxf>
               <fill>
@@ -8382,7 +10269,7 @@
           <xm:sqref>I19:K19 J20:K20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="15" operator="containsText" text="*-" id="{0D7BB936-7669-44F4-8EBA-155D7CCA7826}">
+          <x14:cfRule type="containsText" priority="33" operator="containsText" text="*-" id="{0D7BB936-7669-44F4-8EBA-155D7CCA7826}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I16))))</xm:f>
             <x14:dxf>
               <fill>
@@ -8402,29 +10289,29 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B23"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24:L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.6328125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="18.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="36.6328125" style="3" customWidth="1"/>
-    <col min="6" max="8" width="12.453125" style="3" customWidth="1"/>
-    <col min="9" max="11" width="3.81640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
+    <col min="6" max="8" width="12.42578125" style="3" customWidth="1"/>
+    <col min="9" max="11" width="3.85546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -8448,7 +10335,7 @@
       <c r="K1" s="35"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="10" t="s">
@@ -8480,7 +10367,7 @@
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2002</v>
       </c>
@@ -8520,7 +10407,7 @@
       </c>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2003</v>
       </c>
@@ -8555,12 +10442,12 @@
         <v>0</v>
       </c>
       <c r="L4" s="17" t="str">
-        <f t="shared" ref="L4:L23" si="0">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="L4:L26" si="0">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2004</v>
       </c>
@@ -8599,7 +10486,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2005</v>
       </c>
@@ -8636,7 +10523,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>2006</v>
       </c>
@@ -8673,7 +10560,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>2007</v>
       </c>
@@ -8712,7 +10599,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2008</v>
       </c>
@@ -8751,7 +10638,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>2009</v>
       </c>
@@ -8790,7 +10677,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>2010</v>
       </c>
@@ -8829,7 +10716,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>2011</v>
       </c>
@@ -8868,7 +10755,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>2012</v>
       </c>
@@ -8907,7 +10794,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>2013</v>
       </c>
@@ -8946,7 +10833,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>2014</v>
       </c>
@@ -8985,7 +10872,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>2015</v>
       </c>
@@ -9024,7 +10911,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>2016</v>
       </c>
@@ -9063,7 +10950,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>2017</v>
       </c>
@@ -9102,7 +10989,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>2018</v>
       </c>
@@ -9141,7 +11028,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>2018</v>
       </c>
@@ -9180,7 +11067,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>2018</v>
       </c>
@@ -9219,7 +11106,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>2019</v>
       </c>
@@ -9258,7 +11145,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>2019</v>
       </c>
@@ -9297,9 +11184,122 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="3"/>
-      <c r="D25" s="24"/>
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L24" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L25" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9310,6 +11310,127 @@
     <mergeCell ref="I1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:K18">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:K19 J20:K20">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:K21">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:K21">
+    <cfRule type="containsText" dxfId="111" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="containsText" dxfId="110" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
+    <cfRule type="containsText" dxfId="109" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="containsText" dxfId="108" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="containsText" dxfId="107" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9321,7 +11442,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19:K19 J20:K20">
+  <conditionalFormatting sqref="I20">
+    <cfRule type="containsText" dxfId="106" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9333,7 +11459,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:K21">
+  <conditionalFormatting sqref="I23">
+    <cfRule type="containsText" dxfId="105" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="containsText" dxfId="29" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9345,92 +11479,102 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="30" priority="17" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J24">
+    <cfRule type="containsText" dxfId="28" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J24))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
+    <cfRule type="containsText" dxfId="27" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K24))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
+    <cfRule type="containsText" dxfId="26" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
+    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="containsText" dxfId="24" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="28" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
+  <conditionalFormatting sqref="J26">
+    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
+    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9442,12 +11586,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
+  <conditionalFormatting sqref="I26">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9457,11 +11599,6 @@
         <color rgb="FFD1E0B2"/>
         <color rgb="FF00B050"/>
       </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9471,7 +11608,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="21" operator="containsText" text="*-" id="{C1CDBC62-A74D-4FCF-9816-6EA266E4667D}">
+          <x14:cfRule type="containsText" priority="39" operator="containsText" text="*-" id="{C1CDBC62-A74D-4FCF-9816-6EA266E4667D}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I3))))</xm:f>
             <x14:dxf>
               <fill>
@@ -9485,7 +11622,7 @@
           <xm:sqref>I3:K18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="19" operator="containsText" text="*-" id="{387BC92A-148C-4A30-8749-2B370E2BF39B}">
+          <x14:cfRule type="containsText" priority="37" operator="containsText" text="*-" id="{387BC92A-148C-4A30-8749-2B370E2BF39B}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I17))))</xm:f>
             <x14:dxf>
               <fill>
@@ -9499,7 +11636,7 @@
           <xm:sqref>I19:K19 J20:K20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="15" operator="containsText" text="*-" id="{D039834D-40E6-4675-B529-A8BBD4E25087}">
+          <x14:cfRule type="containsText" priority="33" operator="containsText" text="*-" id="{D039834D-40E6-4675-B529-A8BBD4E25087}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I16))))</xm:f>
             <x14:dxf>
               <fill>
@@ -9519,29 +11656,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B3:B23"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E21:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.6328125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="18.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="36.6328125" style="3" customWidth="1"/>
-    <col min="6" max="8" width="12.453125" style="3" customWidth="1"/>
-    <col min="9" max="11" width="3.81640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
+    <col min="6" max="8" width="12.42578125" style="3" customWidth="1"/>
+    <col min="9" max="11" width="3.85546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -9565,7 +11702,7 @@
       <c r="K1" s="35"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="10" t="s">
@@ -9597,7 +11734,7 @@
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2002</v>
       </c>
@@ -9636,7 +11773,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2003</v>
       </c>
@@ -9671,11 +11808,11 @@
         <v>0</v>
       </c>
       <c r="L4" s="17" t="str">
-        <f t="shared" ref="L4:L23" si="0">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="L4:L26" si="0">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2004</v>
       </c>
@@ -9714,7 +11851,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2005</v>
       </c>
@@ -9751,7 +11888,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>2006</v>
       </c>
@@ -9788,7 +11925,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>2007</v>
       </c>
@@ -9827,7 +11964,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2008</v>
       </c>
@@ -9866,7 +12003,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>2009</v>
       </c>
@@ -9905,7 +12042,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>2010</v>
       </c>
@@ -9944,7 +12081,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>2011</v>
       </c>
@@ -9983,7 +12120,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>2012</v>
       </c>
@@ -10022,7 +12159,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>2013</v>
       </c>
@@ -10061,7 +12198,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>2014</v>
       </c>
@@ -10100,7 +12237,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>2015</v>
       </c>
@@ -10139,7 +12276,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>2016</v>
       </c>
@@ -10178,7 +12315,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>2017</v>
       </c>
@@ -10217,7 +12354,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>2018</v>
       </c>
@@ -10256,7 +12393,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>2018</v>
       </c>
@@ -10295,7 +12432,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>2018</v>
       </c>
@@ -10334,7 +12471,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>2019</v>
       </c>
@@ -10373,7 +12510,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>2019</v>
       </c>
@@ -10412,9 +12549,122 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="3"/>
-      <c r="D25" s="24"/>
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L24" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L25" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10425,6 +12675,127 @@
     <mergeCell ref="I1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:K18">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:K19 J20:K20">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:K21">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:K21">
+    <cfRule type="containsText" dxfId="101" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="containsText" dxfId="100" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
+    <cfRule type="containsText" dxfId="99" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="containsText" dxfId="98" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="containsText" dxfId="97" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10436,7 +12807,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19:K19 J20:K20">
+  <conditionalFormatting sqref="I20">
+    <cfRule type="containsText" dxfId="96" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10448,7 +12824,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:K21">
+  <conditionalFormatting sqref="I23">
+    <cfRule type="containsText" dxfId="95" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10460,92 +12844,102 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J24">
+    <cfRule type="containsText" dxfId="19" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J24))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
+    <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K24))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
+    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
+    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
+  <conditionalFormatting sqref="J26">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10557,12 +12951,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
+  <conditionalFormatting sqref="I26">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10572,11 +12964,6 @@
         <color rgb="FFD1E0B2"/>
         <color rgb="FF00B050"/>
       </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10586,7 +12973,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="21" operator="containsText" text="*-" id="{B1B9A5D1-0CFF-421D-A39B-4B777D992211}">
+          <x14:cfRule type="containsText" priority="39" operator="containsText" text="*-" id="{B1B9A5D1-0CFF-421D-A39B-4B777D992211}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I3))))</xm:f>
             <x14:dxf>
               <fill>
@@ -10600,7 +12987,7 @@
           <xm:sqref>I3:K18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="19" operator="containsText" text="*-" id="{EC1F1189-267E-4F63-9374-4B18FB5CF284}">
+          <x14:cfRule type="containsText" priority="37" operator="containsText" text="*-" id="{EC1F1189-267E-4F63-9374-4B18FB5CF284}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I17))))</xm:f>
             <x14:dxf>
               <fill>
@@ -10614,7 +13001,7 @@
           <xm:sqref>I19:K19 J20:K20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="15" operator="containsText" text="*-" id="{3B568CAB-8240-42F9-8E17-4A1E9B7ABB59}">
+          <x14:cfRule type="containsText" priority="33" operator="containsText" text="*-" id="{3B568CAB-8240-42F9-8E17-4A1E9B7ABB59}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I16))))</xm:f>
             <x14:dxf>
               <fill>
@@ -10634,30 +13021,30 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.6328125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="18.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="36.6328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.6328125" style="3" customWidth="1"/>
-    <col min="7" max="9" width="12.453125" style="3" customWidth="1"/>
-    <col min="10" max="12" width="3.81640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="3" customWidth="1"/>
+    <col min="7" max="9" width="12.42578125" style="3" customWidth="1"/>
+    <col min="10" max="12" width="3.85546875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -10682,7 +13069,7 @@
       <c r="L1" s="35"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="10" t="s">
@@ -10717,7 +13104,7 @@
       </c>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2002</v>
       </c>
@@ -10757,7 +13144,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2002</v>
       </c>
@@ -10799,7 +13186,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2002</v>
       </c>
@@ -10841,7 +13228,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2003</v>
       </c>
@@ -10881,7 +13268,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>2004</v>
       </c>
@@ -10921,7 +13308,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>2005</v>
       </c>
@@ -10959,7 +13346,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2006</v>
       </c>
@@ -10997,7 +13384,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>2007</v>
       </c>
@@ -11037,7 +13424,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>2008</v>
       </c>
@@ -11077,7 +13464,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>2009</v>
       </c>
@@ -11117,7 +13504,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>2010</v>
       </c>
@@ -11157,7 +13544,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>2011</v>
       </c>
@@ -11197,7 +13584,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>2012</v>
       </c>
@@ -11237,7 +13624,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>2013</v>
       </c>
@@ -11277,7 +13664,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>2014</v>
       </c>
@@ -11317,7 +13704,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>2015</v>
       </c>
@@ -11357,7 +13744,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>2016</v>
       </c>
@@ -11397,7 +13784,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>2017</v>
       </c>
@@ -11437,7 +13824,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>2018</v>
       </c>
@@ -11477,7 +13864,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>2018</v>
       </c>
@@ -11517,7 +13904,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>2018</v>
       </c>
@@ -11557,7 +13944,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>2019</v>
       </c>
@@ -11597,7 +13984,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>2019</v>
       </c>
@@ -11634,6 +14021,126 @@
       </c>
       <c r="M25" s="17" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M26" s="17" t="str">
+        <f t="shared" ref="M26:M28" si="1">IF(OR(AND(J26&gt;1,J26&lt;&gt;"-"),AND(K26&gt;1,K26&lt;&gt;"-"),AND(L26&gt;1,L26&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="M28" s="17" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -11646,7 +14153,7 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:L3 J4 K4:L5">
-    <cfRule type="colorScale" priority="36">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -11658,7 +14165,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:L21 K22:L22">
-    <cfRule type="colorScale" priority="98">
+    <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -11670,7 +14177,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="colorScale" priority="114">
+    <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -11682,6 +14189,57 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23:L23">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23:L23">
+    <cfRule type="containsText" dxfId="91" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
+    <cfRule type="containsText" dxfId="90" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24">
+    <cfRule type="containsText" dxfId="89" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11693,109 +14251,104 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23:L23">
-    <cfRule type="containsText" dxfId="10" priority="23" operator="containsText" text="*-">
+  <conditionalFormatting sqref="K25">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
+    <cfRule type="containsText" dxfId="88" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
+  <conditionalFormatting sqref="L25">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L25">
+    <cfRule type="containsText" dxfId="87" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L24">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L24">
-    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J22">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="containsText" dxfId="86" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J25">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
+    <cfRule type="containsText" dxfId="85" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L25">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L25">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J26:L26 K27:L27">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28:L28">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28:L28">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
+  <conditionalFormatting sqref="J27">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11807,8 +14360,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J27">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11819,7 +14372,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="35" operator="containsText" text="*-" id="{95C465FF-CE2B-42D0-B46C-CD9B3B394EA2}">
+          <x14:cfRule type="containsText" priority="41" operator="containsText" text="*-" id="{95C465FF-CE2B-42D0-B46C-CD9B3B394EA2}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I3))))</xm:f>
             <x14:dxf>
               <fill>
@@ -11833,7 +14386,7 @@
           <xm:sqref>J3:L3 J4 K4:L5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="97" operator="containsText" text="*-" id="{95C465FF-CE2B-42D0-B46C-CD9B3B394EA2}">
+          <x14:cfRule type="containsText" priority="103" operator="containsText" text="*-" id="{95C465FF-CE2B-42D0-B46C-CD9B3B394EA2}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I4))))</xm:f>
             <x14:dxf>
               <fill>
@@ -11847,7 +14400,7 @@
           <xm:sqref>J6:L21 K22:L22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="113" operator="containsText" text="*-" id="{95C465FF-CE2B-42D0-B46C-CD9B3B394EA2}">
+          <x14:cfRule type="containsText" priority="119" operator="containsText" text="*-" id="{95C465FF-CE2B-42D0-B46C-CD9B3B394EA2}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I4))))</xm:f>
             <x14:dxf>
               <fill>
@@ -11861,7 +14414,7 @@
           <xm:sqref>J5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="17" operator="containsText" text="*-" id="{DB203A13-BF1F-4DC4-B6DC-C2FB9CBCC828}">
+          <x14:cfRule type="containsText" priority="23" operator="containsText" text="*-" id="{DB203A13-BF1F-4DC4-B6DC-C2FB9CBCC828}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I18))))</xm:f>
             <x14:dxf>
               <fill>
@@ -11874,6 +14427,20 @@
           </x14:cfRule>
           <xm:sqref>J24</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="5" operator="containsText" text="*-" id="{5B9C80CE-DA01-4D89-A3FF-61DD8ADD1E90}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I24))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J26:L26 K27:L27</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -11881,7 +14448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11891,14 +14458,14 @@
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
@@ -11909,7 +14476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -11920,7 +14487,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -11931,7 +14498,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -11942,7 +14509,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -11953,7 +14520,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -11964,7 +14531,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -11977,12 +14544,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Collections/EURO/Luxembourg/#EURO#Luxembourg#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Luxembourg/#EURO#Luxembourg#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Luxembourg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Luxembourg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DB4AA0-1336-46F4-BDB0-4D12A369262D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6654660-829C-4E2B-92A5-9A76FC3F4836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -27,6 +27,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -881,7 +890,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="149">
   <si>
     <t>-</t>
   </si>
@@ -1316,13 +1325,19 @@
     <t>61.000</t>
   </si>
   <si>
-    <t>2.061.000</t>
+    <t>Obv: St. Servatius Bridge instead of mint symbol</t>
   </si>
   <si>
-    <t>1.561.000</t>
+    <t>55.000</t>
   </si>
   <si>
-    <t>Obv: St. Servatius Bridge instead of mint symbol</t>
+    <t>Obv: With St. Servatius Bridge instead of mint symbol</t>
+  </si>
+  <si>
+    <t>3.055.000</t>
+  </si>
+  <si>
+    <t>1.555.000</t>
   </si>
 </sst>
 </file>
@@ -1661,7 +1676,895 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="173">
+  <dxfs count="192">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2294,742 +3197,6 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3062,9 +3229,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="79" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="78"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="191"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="190" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="189"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3333,28 +3500,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
+      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
-    <col min="6" max="8" width="12.42578125" style="3" customWidth="1"/>
-    <col min="9" max="11" width="3.85546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.54296875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.54296875" style="3" customWidth="1"/>
+    <col min="6" max="8" width="12.453125" style="3" customWidth="1"/>
+    <col min="9" max="11" width="3.81640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.7265625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -3378,7 +3545,7 @@
       <c r="K1" s="35"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="10" t="s">
@@ -3410,7 +3577,7 @@
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2002</v>
       </c>
@@ -3449,7 +3616,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>2003</v>
       </c>
@@ -3488,7 +3655,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>2004</v>
       </c>
@@ -3527,7 +3694,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>2005</v>
       </c>
@@ -3564,7 +3731,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>2006</v>
       </c>
@@ -3601,7 +3768,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>2007</v>
       </c>
@@ -3640,7 +3807,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>2008</v>
       </c>
@@ -3679,7 +3846,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>2009</v>
       </c>
@@ -3718,7 +3885,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>2010</v>
       </c>
@@ -3757,7 +3924,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>2011</v>
       </c>
@@ -3796,7 +3963,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>2012</v>
       </c>
@@ -3835,7 +4002,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>2013</v>
       </c>
@@ -3874,7 +4041,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>2014</v>
       </c>
@@ -3913,7 +4080,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>2015</v>
       </c>
@@ -3952,7 +4119,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>2016</v>
       </c>
@@ -3991,7 +4158,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>2017</v>
       </c>
@@ -4030,7 +4197,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>2018</v>
       </c>
@@ -4069,7 +4236,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>2018</v>
       </c>
@@ -4108,7 +4275,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>2018</v>
       </c>
@@ -4147,7 +4314,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>2019</v>
       </c>
@@ -4186,7 +4353,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>2019</v>
       </c>
@@ -4225,7 +4392,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>2020</v>
       </c>
@@ -4264,7 +4431,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>2020</v>
       </c>
@@ -4299,11 +4466,11 @@
         <v>0</v>
       </c>
       <c r="L25" s="17" t="str">
-        <f t="shared" ref="L25:L26" si="2">IF(OR(AND(I25&gt;1,I25&lt;&gt;"-"),AND(J25&gt;1,J25&lt;&gt;"-"),AND(K25&gt;1,K25&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="L25:L29" si="2">IF(OR(AND(I25&gt;1,I25&lt;&gt;"-"),AND(J25&gt;1,J25&lt;&gt;"-"),AND(K25&gt;1,K25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>2020</v>
       </c>
@@ -4338,6 +4505,123 @@
         <v>0</v>
       </c>
       <c r="L26" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4351,10 +4635,10 @@
     <mergeCell ref="I1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:I5 I10:I18">
-    <cfRule type="containsText" dxfId="172" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="188" priority="97" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="90">
+    <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -4366,10 +4650,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J7">
-    <cfRule type="containsText" dxfId="171" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="187" priority="93" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="86">
+    <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -4381,9 +4665,69 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="170" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="186" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
     </cfRule>
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:K9">
+    <cfRule type="containsText" dxfId="185" priority="87" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="containsText" dxfId="184" priority="65" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I8))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="containsText" dxfId="183" priority="63" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I9))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:J18">
+    <cfRule type="containsText" dxfId="182" priority="61" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J8))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4395,24 +4739,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K9">
-    <cfRule type="containsText" dxfId="169" priority="79" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="80">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="containsText" dxfId="168" priority="57" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I8))))</formula>
+  <conditionalFormatting sqref="J3 J5">
+    <cfRule type="containsText" dxfId="181" priority="57" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="58">
       <colorScale>
@@ -4425,9 +4754,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="containsText" dxfId="167" priority="55" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I9))))</formula>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="containsText" dxfId="180" priority="55" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
       <colorScale>
@@ -4440,9 +4769,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:J18">
-    <cfRule type="containsText" dxfId="166" priority="53" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J8))))</formula>
+  <conditionalFormatting sqref="K10:K18">
+    <cfRule type="containsText" dxfId="179" priority="53" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K10))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="54">
       <colorScale>
@@ -4455,9 +4784,39 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5 J3">
-    <cfRule type="containsText" dxfId="165" priority="49" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="containsText" dxfId="178" priority="67" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I7))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K7">
+    <cfRule type="containsText" dxfId="177" priority="51" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:K19 J20:K20">
+    <cfRule type="containsText" dxfId="176" priority="49" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
       <colorScale>
@@ -4470,10 +4829,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="164" priority="47" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="I21:K21">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4485,9 +4841,48 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:K18">
-    <cfRule type="containsText" dxfId="163" priority="45" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K10))))</formula>
+  <conditionalFormatting sqref="I21:K21">
+    <cfRule type="containsText" dxfId="175" priority="47" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="containsText" dxfId="174" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
+    <cfRule type="containsText" dxfId="173" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="containsText" dxfId="172" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="46">
       <colorScale>
@@ -4500,52 +4895,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="containsText" dxfId="162" priority="59" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I7))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K7">
-    <cfRule type="containsText" dxfId="161" priority="43" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I19:K19 J20:K20">
-    <cfRule type="containsText" dxfId="160" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21:K21">
+  <conditionalFormatting sqref="J23">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4557,29 +4907,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="159" priority="39" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J23">
+    <cfRule type="containsText" dxfId="171" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="158" priority="35" operator="containsText" text="*-">
+  <conditionalFormatting sqref="K23">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="containsText" dxfId="170" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
+  <conditionalFormatting sqref="I20">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4591,27 +4941,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="157" priority="33" operator="containsText" text="*-">
+  <conditionalFormatting sqref="I20">
+    <cfRule type="containsText" dxfId="169" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="containsText" dxfId="156" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
+  <conditionalFormatting sqref="I23">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4623,12 +4958,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="155" priority="31" operator="containsText" text="*-">
+  <conditionalFormatting sqref="I23">
+    <cfRule type="containsText" dxfId="168" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
+  <conditionalFormatting sqref="I24">
+    <cfRule type="containsText" dxfId="167" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4640,170 +4978,182 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="154" priority="29" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J24">
+    <cfRule type="containsText" dxfId="166" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J24))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
+    <cfRule type="containsText" dxfId="165" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K24))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
+    <cfRule type="containsText" dxfId="164" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
+    <cfRule type="containsText" dxfId="163" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="containsText" dxfId="162" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="153" priority="25" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J26">
+    <cfRule type="containsText" dxfId="161" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
+    <cfRule type="containsText" dxfId="160" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="containsText" dxfId="159" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:K27">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:K27">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="152" priority="23" operator="containsText" text="*-">
+  <conditionalFormatting sqref="I28:K28">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28:K28">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="containsText" dxfId="77" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24">
-    <cfRule type="containsText" dxfId="76" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J24))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
-    <cfRule type="containsText" dxfId="75" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K24))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="73" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="72" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
-    <cfRule type="containsText" dxfId="71" priority="9" operator="containsText" text="*-">
+  <conditionalFormatting sqref="I29:K29">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29:K29">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26">
-    <cfRule type="containsText" dxfId="69" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
-    <cfRule type="containsText" dxfId="68" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="57" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -4824,28 +5174,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27:L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
-    <col min="6" max="8" width="12.42578125" style="3" customWidth="1"/>
-    <col min="9" max="11" width="3.85546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.54296875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.54296875" style="3" customWidth="1"/>
+    <col min="6" max="8" width="12.453125" style="3" customWidth="1"/>
+    <col min="9" max="11" width="3.81640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.7265625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -4869,7 +5219,7 @@
       <c r="K1" s="35"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="10" t="s">
@@ -4901,7 +5251,7 @@
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2002</v>
       </c>
@@ -4941,7 +5291,7 @@
       </c>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>2003</v>
       </c>
@@ -4976,12 +5326,12 @@
         <v>0</v>
       </c>
       <c r="L4" s="17" t="str">
-        <f t="shared" ref="L4:L26" si="0">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="L4:L29" si="0">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>2004</v>
       </c>
@@ -5020,7 +5370,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>2005</v>
       </c>
@@ -5057,7 +5407,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>2006</v>
       </c>
@@ -5094,7 +5444,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>2007</v>
       </c>
@@ -5133,7 +5483,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>2008</v>
       </c>
@@ -5172,7 +5522,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>2009</v>
       </c>
@@ -5211,7 +5561,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>2010</v>
       </c>
@@ -5250,7 +5600,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>2011</v>
       </c>
@@ -5289,7 +5639,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>2012</v>
       </c>
@@ -5328,7 +5678,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>2013</v>
       </c>
@@ -5367,7 +5717,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>2014</v>
       </c>
@@ -5406,7 +5756,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>2015</v>
       </c>
@@ -5445,7 +5795,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>2016</v>
       </c>
@@ -5484,7 +5834,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>2017</v>
       </c>
@@ -5523,7 +5873,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>2018</v>
       </c>
@@ -5562,7 +5912,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>2018</v>
       </c>
@@ -5601,7 +5951,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>2018</v>
       </c>
@@ -5640,7 +5990,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>2019</v>
       </c>
@@ -5679,7 +6029,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>2019</v>
       </c>
@@ -5718,7 +6068,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>2020</v>
       </c>
@@ -5757,7 +6107,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>2020</v>
       </c>
@@ -5796,7 +6146,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>2020</v>
       </c>
@@ -5831,6 +6181,123 @@
         <v>0</v>
       </c>
       <c r="L26" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5844,7 +6311,7 @@
     <mergeCell ref="I1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:K18">
-    <cfRule type="colorScale" priority="64">
+    <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -5856,6 +6323,52 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:K19 J20:K20">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:K21">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:K21">
+    <cfRule type="containsText" dxfId="158" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="containsText" dxfId="157" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5867,7 +6380,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:K21">
+  <conditionalFormatting sqref="K22">
+    <cfRule type="containsText" dxfId="156" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5879,29 +6409,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="151" priority="37" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J23">
+    <cfRule type="containsText" dxfId="155" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="150" priority="33" operator="containsText" text="*-">
+  <conditionalFormatting sqref="K23">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="containsText" dxfId="154" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
+  <conditionalFormatting sqref="I20">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5913,24 +6443,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="149" priority="31" operator="containsText" text="*-">
+  <conditionalFormatting sqref="I20">
+    <cfRule type="containsText" dxfId="153" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
+  <conditionalFormatting sqref="I23">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5942,12 +6460,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="148" priority="29" operator="containsText" text="*-">
+  <conditionalFormatting sqref="I23">
+    <cfRule type="containsText" dxfId="152" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
+  <conditionalFormatting sqref="I24">
+    <cfRule type="containsText" dxfId="151" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5959,170 +6480,182 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="147" priority="27" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J24">
+    <cfRule type="containsText" dxfId="150" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J24))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
+    <cfRule type="containsText" dxfId="149" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K24))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
+    <cfRule type="containsText" dxfId="148" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
+    <cfRule type="containsText" dxfId="147" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="containsText" dxfId="146" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="146" priority="23" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J26">
+    <cfRule type="containsText" dxfId="145" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
+    <cfRule type="containsText" dxfId="144" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="containsText" dxfId="143" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:K27">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:K27">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="145" priority="21" operator="containsText" text="*-">
+  <conditionalFormatting sqref="I28:K28">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28:K28">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="containsText" dxfId="67" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24">
-    <cfRule type="containsText" dxfId="66" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J24))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
-    <cfRule type="containsText" dxfId="65" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K24))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="64" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="63" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
-    <cfRule type="containsText" dxfId="62" priority="9" operator="containsText" text="*-">
+  <conditionalFormatting sqref="I29:K29">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29:K29">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26">
-    <cfRule type="containsText" dxfId="60" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
-    <cfRule type="containsText" dxfId="59" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="58" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -6142,7 +6675,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="63" operator="containsText" text="*-" id="{FB2123A3-261C-4532-930A-123C356F762F}">
+          <x14:cfRule type="containsText" priority="71" operator="containsText" text="*-" id="{FB2123A3-261C-4532-930A-123C356F762F}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I3))))</xm:f>
             <x14:dxf>
               <fill>
@@ -6156,7 +6689,7 @@
           <xm:sqref>I3:K18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="39" operator="containsText" text="*-" id="{7A9B2D59-0E07-4CD8-9FFF-ADD654D6476E}">
+          <x14:cfRule type="containsText" priority="47" operator="containsText" text="*-" id="{7A9B2D59-0E07-4CD8-9FFF-ADD654D6476E}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I17))))</xm:f>
             <x14:dxf>
               <fill>
@@ -6170,7 +6703,7 @@
           <xm:sqref>I19:K19 J20:K20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="35" operator="containsText" text="*-" id="{B48ED3C7-4981-4BC1-9797-38D42593941B}">
+          <x14:cfRule type="containsText" priority="43" operator="containsText" text="*-" id="{B48ED3C7-4981-4BC1-9797-38D42593941B}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I16))))</xm:f>
             <x14:dxf>
               <fill>
@@ -6191,28 +6724,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L26" sqref="A24:L26"/>
+      <selection pane="bottomRight" activeCell="L29" sqref="A27:L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
-    <col min="6" max="8" width="12.42578125" style="3" customWidth="1"/>
-    <col min="9" max="11" width="3.85546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.54296875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.54296875" style="3" customWidth="1"/>
+    <col min="6" max="8" width="12.453125" style="3" customWidth="1"/>
+    <col min="9" max="11" width="3.81640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.7265625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -6236,7 +6769,7 @@
       <c r="K1" s="35"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="10" t="s">
@@ -6268,7 +6801,7 @@
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2002</v>
       </c>
@@ -6307,7 +6840,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>2003</v>
       </c>
@@ -6342,11 +6875,11 @@
         <v>0</v>
       </c>
       <c r="L4" s="17" t="str">
-        <f t="shared" ref="L4:L26" si="0">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="L4:L29" si="0">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>2004</v>
       </c>
@@ -6385,7 +6918,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>2005</v>
       </c>
@@ -6422,7 +6955,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>2006</v>
       </c>
@@ -6459,7 +6992,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>2007</v>
       </c>
@@ -6498,7 +7031,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>2008</v>
       </c>
@@ -6537,7 +7070,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>2009</v>
       </c>
@@ -6576,7 +7109,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>2010</v>
       </c>
@@ -6615,7 +7148,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>2011</v>
       </c>
@@ -6654,7 +7187,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>2012</v>
       </c>
@@ -6693,7 +7226,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>2013</v>
       </c>
@@ -6732,7 +7265,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>2014</v>
       </c>
@@ -6771,7 +7304,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>2015</v>
       </c>
@@ -6810,7 +7343,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>2016</v>
       </c>
@@ -6849,7 +7382,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>2017</v>
       </c>
@@ -6888,7 +7421,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>2018</v>
       </c>
@@ -6927,7 +7460,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>2018</v>
       </c>
@@ -6966,7 +7499,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>2018</v>
       </c>
@@ -7005,7 +7538,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>2019</v>
       </c>
@@ -7044,7 +7577,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>2019</v>
       </c>
@@ -7083,7 +7616,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>2020</v>
       </c>
@@ -7100,7 +7633,7 @@
         <v>131</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G24" s="19" t="s">
         <v>0</v>
@@ -7122,7 +7655,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>2020</v>
       </c>
@@ -7161,7 +7694,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>2020</v>
       </c>
@@ -7196,6 +7729,123 @@
         <v>0</v>
       </c>
       <c r="L26" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7209,6 +7859,47 @@
     <mergeCell ref="I1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:K18">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:K19 J20:K20">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:K21">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:K21">
+    <cfRule type="containsText" dxfId="139" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7220,7 +7911,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19:K19 J20:K20">
+  <conditionalFormatting sqref="J22">
+    <cfRule type="containsText" dxfId="138" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7232,7 +7928,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:K21">
+  <conditionalFormatting sqref="K22">
+    <cfRule type="containsText" dxfId="137" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7244,29 +7957,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="141" priority="35" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J23">
+    <cfRule type="containsText" dxfId="136" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="140" priority="31" operator="containsText" text="*-">
+  <conditionalFormatting sqref="K23">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="containsText" dxfId="135" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
+  <conditionalFormatting sqref="I20">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7278,24 +7991,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="139" priority="29" operator="containsText" text="*-">
+  <conditionalFormatting sqref="I20">
+    <cfRule type="containsText" dxfId="134" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
+  <conditionalFormatting sqref="I23">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7307,12 +8008,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="138" priority="27" operator="containsText" text="*-">
+  <conditionalFormatting sqref="I23">
+    <cfRule type="containsText" dxfId="133" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
+  <conditionalFormatting sqref="I24">
+    <cfRule type="containsText" dxfId="132" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7324,170 +8028,182 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="137" priority="25" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J24">
+    <cfRule type="containsText" dxfId="131" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J24))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
+    <cfRule type="containsText" dxfId="130" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K24))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
+    <cfRule type="containsText" dxfId="129" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
+    <cfRule type="containsText" dxfId="128" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="containsText" dxfId="127" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="136" priority="21" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J26">
+    <cfRule type="containsText" dxfId="126" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
+    <cfRule type="containsText" dxfId="125" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="containsText" dxfId="124" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:K27">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:K27">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="135" priority="19" operator="containsText" text="*-">
+  <conditionalFormatting sqref="I28:K28">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28:K28">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="containsText" dxfId="56" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24">
-    <cfRule type="containsText" dxfId="55" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J24))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
-    <cfRule type="containsText" dxfId="54" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K24))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="53" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="52" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
-    <cfRule type="containsText" dxfId="51" priority="7" operator="containsText" text="*-">
+  <conditionalFormatting sqref="I29:K29">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29:K29">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26">
-    <cfRule type="containsText" dxfId="50" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
-    <cfRule type="containsText" dxfId="49" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="48" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -7507,7 +8223,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="39" operator="containsText" text="*-" id="{2584AC74-A7F2-46ED-B7FA-60652149F404}">
+          <x14:cfRule type="containsText" priority="47" operator="containsText" text="*-" id="{2584AC74-A7F2-46ED-B7FA-60652149F404}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I3))))</xm:f>
             <x14:dxf>
               <fill>
@@ -7521,7 +8237,7 @@
           <xm:sqref>I3:K18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="37" operator="containsText" text="*-" id="{C3028698-34CD-465F-9646-7FC669620911}">
+          <x14:cfRule type="containsText" priority="45" operator="containsText" text="*-" id="{C3028698-34CD-465F-9646-7FC669620911}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I17))))</xm:f>
             <x14:dxf>
               <fill>
@@ -7535,7 +8251,7 @@
           <xm:sqref>I19:K19 J20:K20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="33" operator="containsText" text="*-" id="{A34E8E83-9659-43D8-A98C-3D374C8E372C}">
+          <x14:cfRule type="containsText" priority="41" operator="containsText" text="*-" id="{A34E8E83-9659-43D8-A98C-3D374C8E372C}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I16))))</xm:f>
             <x14:dxf>
               <fill>
@@ -7556,28 +8272,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L26" sqref="A24:L26"/>
+      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
-    <col min="6" max="8" width="12.42578125" style="3" customWidth="1"/>
-    <col min="9" max="11" width="3.85546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.54296875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.54296875" style="3" customWidth="1"/>
+    <col min="6" max="8" width="12.453125" style="3" customWidth="1"/>
+    <col min="9" max="11" width="3.81640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.7265625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -7601,7 +8317,7 @@
       <c r="K1" s="35"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="10" t="s">
@@ -7633,7 +8349,7 @@
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2002</v>
       </c>
@@ -7673,7 +8389,7 @@
       </c>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>2003</v>
       </c>
@@ -7708,12 +8424,12 @@
         <v>0</v>
       </c>
       <c r="L4" s="17" t="str">
-        <f t="shared" ref="L4:L26" si="0">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="L4:L29" si="0">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>2004</v>
       </c>
@@ -7752,7 +8468,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>2005</v>
       </c>
@@ -7789,7 +8505,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>2006</v>
       </c>
@@ -7826,7 +8542,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>2007</v>
       </c>
@@ -7865,7 +8581,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>2008</v>
       </c>
@@ -7904,7 +8620,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>2009</v>
       </c>
@@ -7943,7 +8659,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>2010</v>
       </c>
@@ -7982,7 +8698,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>2011</v>
       </c>
@@ -8021,7 +8737,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>2012</v>
       </c>
@@ -8060,7 +8776,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>2013</v>
       </c>
@@ -8099,7 +8815,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>2014</v>
       </c>
@@ -8138,7 +8854,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>2015</v>
       </c>
@@ -8177,7 +8893,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>2016</v>
       </c>
@@ -8216,7 +8932,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>2017</v>
       </c>
@@ -8255,7 +8971,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>2018</v>
       </c>
@@ -8294,7 +9010,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>2018</v>
       </c>
@@ -8333,7 +9049,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>2018</v>
       </c>
@@ -8372,7 +9088,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>2019</v>
       </c>
@@ -8411,7 +9127,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>2019</v>
       </c>
@@ -8450,7 +9166,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>2020</v>
       </c>
@@ -8467,7 +9183,7 @@
         <v>131</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G24" s="19" t="s">
         <v>0</v>
@@ -8489,7 +9205,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>2020</v>
       </c>
@@ -8528,7 +9244,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>2020</v>
       </c>
@@ -8563,6 +9279,123 @@
         <v>0</v>
       </c>
       <c r="L26" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8576,6 +9409,64 @@
     <mergeCell ref="I1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:K18">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:K19 J20:K20">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="containsText" dxfId="120" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:K21">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:K21">
+    <cfRule type="containsText" dxfId="119" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8587,7 +9478,140 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19:K19 J20:K20">
+  <conditionalFormatting sqref="J22">
+    <cfRule type="containsText" dxfId="118" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
+    <cfRule type="containsText" dxfId="117" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="containsText" dxfId="116" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="containsText" dxfId="115" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="containsText" dxfId="114" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="containsText" dxfId="113" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24">
+    <cfRule type="containsText" dxfId="112" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J24))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
+    <cfRule type="containsText" dxfId="111" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K24))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
+    <cfRule type="containsText" dxfId="110" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8599,262 +9623,137 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="131" priority="19" operator="containsText" text="*-">
+  <conditionalFormatting sqref="K25">
+    <cfRule type="containsText" dxfId="109" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="containsText" dxfId="108" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21:K21">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="130" priority="35" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J26">
+    <cfRule type="containsText" dxfId="107" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
+    <cfRule type="containsText" dxfId="106" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="containsText" dxfId="105" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:K27">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:K27">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="129" priority="31" operator="containsText" text="*-">
+  <conditionalFormatting sqref="I28:K28">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28:K28">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="128" priority="29" operator="containsText" text="*-">
+  <conditionalFormatting sqref="I29:K29">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29:K29">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="127" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="126" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="125" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="containsText" dxfId="47" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24">
-    <cfRule type="containsText" dxfId="46" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J24))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
-    <cfRule type="containsText" dxfId="45" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K24))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="44" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="43" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
-    <cfRule type="containsText" dxfId="42" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J26">
-    <cfRule type="containsText" dxfId="41" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
-    <cfRule type="containsText" dxfId="40" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="39" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -8874,7 +9773,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="39" operator="containsText" text="*-" id="{B6918180-CDCF-41DF-B2B6-A9DED0656946}">
+          <x14:cfRule type="containsText" priority="47" operator="containsText" text="*-" id="{B6918180-CDCF-41DF-B2B6-A9DED0656946}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I3))))</xm:f>
             <x14:dxf>
               <fill>
@@ -8888,7 +9787,7 @@
           <xm:sqref>I3:K18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="43" operator="containsText" text="*-" id="{5B8982D8-36F7-4976-8188-8AF74C616815}">
+          <x14:cfRule type="containsText" priority="51" operator="containsText" text="*-" id="{5B8982D8-36F7-4976-8188-8AF74C616815}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I17))))</xm:f>
             <x14:dxf>
               <fill>
@@ -8902,7 +9801,7 @@
           <xm:sqref>I19:K19 J20:K20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="44" operator="containsText" text="*-" id="{3FB0CFE8-7416-4808-BE46-48A7F1B09141}">
+          <x14:cfRule type="containsText" priority="52" operator="containsText" text="*-" id="{3FB0CFE8-7416-4808-BE46-48A7F1B09141}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I16))))</xm:f>
             <x14:dxf>
               <fill>
@@ -8923,28 +9822,28 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
-    <col min="6" max="8" width="12.42578125" style="3" customWidth="1"/>
-    <col min="9" max="11" width="3.85546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.54296875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.54296875" style="3" customWidth="1"/>
+    <col min="6" max="8" width="12.453125" style="3" customWidth="1"/>
+    <col min="9" max="11" width="3.81640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.7265625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -8968,7 +9867,7 @@
       <c r="K1" s="35"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="10" t="s">
@@ -9000,7 +9899,7 @@
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2002</v>
       </c>
@@ -9040,7 +9939,7 @@
       </c>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>2003</v>
       </c>
@@ -9075,12 +9974,12 @@
         <v>0</v>
       </c>
       <c r="L4" s="17" t="str">
-        <f t="shared" ref="L4:L26" si="0">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="L4:L29" si="0">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>2004</v>
       </c>
@@ -9119,7 +10018,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>2005</v>
       </c>
@@ -9156,7 +10055,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>2006</v>
       </c>
@@ -9193,7 +10092,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>2007</v>
       </c>
@@ -9232,7 +10131,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>2008</v>
       </c>
@@ -9271,7 +10170,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>2009</v>
       </c>
@@ -9310,7 +10209,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>2010</v>
       </c>
@@ -9349,7 +10248,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>2011</v>
       </c>
@@ -9388,7 +10287,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>2012</v>
       </c>
@@ -9427,7 +10326,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>2013</v>
       </c>
@@ -9466,7 +10365,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>2014</v>
       </c>
@@ -9505,7 +10404,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>2015</v>
       </c>
@@ -9544,7 +10443,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>2016</v>
       </c>
@@ -9583,7 +10482,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>2017</v>
       </c>
@@ -9622,7 +10521,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>2018</v>
       </c>
@@ -9661,7 +10560,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>2018</v>
       </c>
@@ -9700,7 +10599,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>2018</v>
       </c>
@@ -9739,7 +10638,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>2019</v>
       </c>
@@ -9778,7 +10677,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>2019</v>
       </c>
@@ -9817,7 +10716,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>2020</v>
       </c>
@@ -9834,7 +10733,7 @@
         <v>131</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G24" s="19" t="s">
         <v>0</v>
@@ -9856,7 +10755,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>2020</v>
       </c>
@@ -9895,7 +10794,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>2020</v>
       </c>
@@ -9903,7 +10802,7 @@
         <v>141</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>25</v>
@@ -9930,6 +10829,123 @@
         <v>0</v>
       </c>
       <c r="L26" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -9943,6 +10959,47 @@
     <mergeCell ref="I1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:K18">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:K19 J20:K20">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:K21">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:K21">
+    <cfRule type="containsText" dxfId="101" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9954,7 +11011,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19:K19 J20:K20">
+  <conditionalFormatting sqref="J22">
+    <cfRule type="containsText" dxfId="100" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9966,7 +11028,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:K21">
+  <conditionalFormatting sqref="K22">
+    <cfRule type="containsText" dxfId="99" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9978,29 +11057,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="121" priority="35" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J23">
+    <cfRule type="containsText" dxfId="98" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="120" priority="31" operator="containsText" text="*-">
+  <conditionalFormatting sqref="K23">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="containsText" dxfId="97" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
+  <conditionalFormatting sqref="I20">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10012,24 +11091,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="119" priority="29" operator="containsText" text="*-">
+  <conditionalFormatting sqref="I20">
+    <cfRule type="containsText" dxfId="96" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
+  <conditionalFormatting sqref="I23">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10041,12 +11108,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="118" priority="27" operator="containsText" text="*-">
+  <conditionalFormatting sqref="I23">
+    <cfRule type="containsText" dxfId="95" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
+  <conditionalFormatting sqref="I24">
+    <cfRule type="containsText" dxfId="94" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10058,170 +11128,182 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="117" priority="25" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J24">
+    <cfRule type="containsText" dxfId="93" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J24))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
+    <cfRule type="containsText" dxfId="92" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K24))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
+    <cfRule type="containsText" dxfId="91" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
+    <cfRule type="containsText" dxfId="90" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="containsText" dxfId="89" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="116" priority="21" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J26">
+    <cfRule type="containsText" dxfId="88" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
+    <cfRule type="containsText" dxfId="87" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="containsText" dxfId="86" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:K27">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:K27">
+    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="115" priority="19" operator="containsText" text="*-">
+  <conditionalFormatting sqref="I28:K28">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28:K28">
+    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="containsText" dxfId="38" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24">
-    <cfRule type="containsText" dxfId="37" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J24))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
-    <cfRule type="containsText" dxfId="36" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K24))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="35" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="34" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
-    <cfRule type="containsText" dxfId="33" priority="7" operator="containsText" text="*-">
+  <conditionalFormatting sqref="I29:K29">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29:K29">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26">
-    <cfRule type="containsText" dxfId="32" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
-    <cfRule type="containsText" dxfId="31" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="30" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -10241,7 +11323,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="39" operator="containsText" text="*-" id="{BBF6F006-7E15-4D0D-B32D-3010E0C313DD}">
+          <x14:cfRule type="containsText" priority="47" operator="containsText" text="*-" id="{BBF6F006-7E15-4D0D-B32D-3010E0C313DD}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I3))))</xm:f>
             <x14:dxf>
               <fill>
@@ -10255,7 +11337,7 @@
           <xm:sqref>I3:K18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="37" operator="containsText" text="*-" id="{4ADE7EDE-544F-4FF1-BD3D-4F2434D3B5E6}">
+          <x14:cfRule type="containsText" priority="45" operator="containsText" text="*-" id="{4ADE7EDE-544F-4FF1-BD3D-4F2434D3B5E6}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I17))))</xm:f>
             <x14:dxf>
               <fill>
@@ -10269,7 +11351,7 @@
           <xm:sqref>I19:K19 J20:K20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="33" operator="containsText" text="*-" id="{0D7BB936-7669-44F4-8EBA-155D7CCA7826}">
+          <x14:cfRule type="containsText" priority="41" operator="containsText" text="*-" id="{0D7BB936-7669-44F4-8EBA-155D7CCA7826}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I16))))</xm:f>
             <x14:dxf>
               <fill>
@@ -10290,28 +11372,28 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24:L26"/>
+      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
-    <col min="6" max="8" width="12.42578125" style="3" customWidth="1"/>
-    <col min="9" max="11" width="3.85546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.54296875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.54296875" style="3" customWidth="1"/>
+    <col min="6" max="8" width="12.453125" style="3" customWidth="1"/>
+    <col min="9" max="11" width="3.81640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.7265625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -10335,7 +11417,7 @@
       <c r="K1" s="35"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="10" t="s">
@@ -10367,7 +11449,7 @@
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2002</v>
       </c>
@@ -10407,7 +11489,7 @@
       </c>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>2003</v>
       </c>
@@ -10442,12 +11524,12 @@
         <v>0</v>
       </c>
       <c r="L4" s="17" t="str">
-        <f t="shared" ref="L4:L26" si="0">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="L4:L29" si="0">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>2004</v>
       </c>
@@ -10486,7 +11568,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>2005</v>
       </c>
@@ -10523,7 +11605,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>2006</v>
       </c>
@@ -10560,7 +11642,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>2007</v>
       </c>
@@ -10599,7 +11681,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>2008</v>
       </c>
@@ -10638,7 +11720,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>2009</v>
       </c>
@@ -10677,7 +11759,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>2010</v>
       </c>
@@ -10716,7 +11798,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>2011</v>
       </c>
@@ -10755,7 +11837,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>2012</v>
       </c>
@@ -10794,7 +11876,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>2013</v>
       </c>
@@ -10833,7 +11915,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>2014</v>
       </c>
@@ -10872,7 +11954,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>2015</v>
       </c>
@@ -10911,7 +11993,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>2016</v>
       </c>
@@ -10950,7 +12032,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>2017</v>
       </c>
@@ -10989,7 +12071,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>2018</v>
       </c>
@@ -11028,7 +12110,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>2018</v>
       </c>
@@ -11067,7 +12149,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>2018</v>
       </c>
@@ -11106,7 +12188,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>2019</v>
       </c>
@@ -11145,7 +12227,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>2019</v>
       </c>
@@ -11184,7 +12266,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>2020</v>
       </c>
@@ -11201,7 +12283,7 @@
         <v>131</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G24" s="19" t="s">
         <v>0</v>
@@ -11223,7 +12305,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>2020</v>
       </c>
@@ -11262,7 +12344,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>2020</v>
       </c>
@@ -11297,6 +12379,123 @@
         <v>0</v>
       </c>
       <c r="L26" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11310,6 +12509,47 @@
     <mergeCell ref="I1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:K18">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:K19 J20:K20">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:K21">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:K21">
+    <cfRule type="containsText" dxfId="82" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11321,7 +12561,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19:K19 J20:K20">
+  <conditionalFormatting sqref="J22">
+    <cfRule type="containsText" dxfId="81" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11333,7 +12578,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:K21">
+  <conditionalFormatting sqref="K22">
+    <cfRule type="containsText" dxfId="80" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11345,29 +12607,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="111" priority="35" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J23">
+    <cfRule type="containsText" dxfId="79" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="110" priority="31" operator="containsText" text="*-">
+  <conditionalFormatting sqref="K23">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="containsText" dxfId="78" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
+  <conditionalFormatting sqref="I20">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11379,24 +12641,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="109" priority="29" operator="containsText" text="*-">
+  <conditionalFormatting sqref="I20">
+    <cfRule type="containsText" dxfId="77" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
+  <conditionalFormatting sqref="I23">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11408,12 +12658,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="108" priority="27" operator="containsText" text="*-">
+  <conditionalFormatting sqref="I23">
+    <cfRule type="containsText" dxfId="76" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
+  <conditionalFormatting sqref="I24">
+    <cfRule type="containsText" dxfId="75" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11425,170 +12678,182 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="107" priority="25" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J24">
+    <cfRule type="containsText" dxfId="74" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J24))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
+    <cfRule type="containsText" dxfId="73" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K24))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
+    <cfRule type="containsText" dxfId="72" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
+    <cfRule type="containsText" dxfId="71" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="containsText" dxfId="70" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="106" priority="21" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J26">
+    <cfRule type="containsText" dxfId="69" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
+    <cfRule type="containsText" dxfId="68" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="containsText" dxfId="67" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:K27">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:K27">
+    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="105" priority="19" operator="containsText" text="*-">
+  <conditionalFormatting sqref="I28:K28">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28:K28">
+    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="containsText" dxfId="29" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24">
-    <cfRule type="containsText" dxfId="28" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J24))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
-    <cfRule type="containsText" dxfId="27" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K24))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="26" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
-    <cfRule type="containsText" dxfId="24" priority="7" operator="containsText" text="*-">
+  <conditionalFormatting sqref="I29:K29">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29:K29">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26">
-    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
-    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -11608,7 +12873,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="39" operator="containsText" text="*-" id="{C1CDBC62-A74D-4FCF-9816-6EA266E4667D}">
+          <x14:cfRule type="containsText" priority="47" operator="containsText" text="*-" id="{C1CDBC62-A74D-4FCF-9816-6EA266E4667D}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I3))))</xm:f>
             <x14:dxf>
               <fill>
@@ -11622,7 +12887,7 @@
           <xm:sqref>I3:K18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="37" operator="containsText" text="*-" id="{387BC92A-148C-4A30-8749-2B370E2BF39B}">
+          <x14:cfRule type="containsText" priority="45" operator="containsText" text="*-" id="{387BC92A-148C-4A30-8749-2B370E2BF39B}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I17))))</xm:f>
             <x14:dxf>
               <fill>
@@ -11636,7 +12901,7 @@
           <xm:sqref>I19:K19 J20:K20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="33" operator="containsText" text="*-" id="{D039834D-40E6-4675-B529-A8BBD4E25087}">
+          <x14:cfRule type="containsText" priority="41" operator="containsText" text="*-" id="{D039834D-40E6-4675-B529-A8BBD4E25087}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I16))))</xm:f>
             <x14:dxf>
               <fill>
@@ -11657,28 +12922,28 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E21:E22"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
-    <col min="6" max="8" width="12.42578125" style="3" customWidth="1"/>
-    <col min="9" max="11" width="3.85546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.54296875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.54296875" style="3" customWidth="1"/>
+    <col min="6" max="8" width="12.453125" style="3" customWidth="1"/>
+    <col min="9" max="11" width="3.81640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.7265625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -11702,7 +12967,7 @@
       <c r="K1" s="35"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="10" t="s">
@@ -11734,7 +12999,7 @@
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2002</v>
       </c>
@@ -11773,7 +13038,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>2003</v>
       </c>
@@ -11812,7 +13077,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>2004</v>
       </c>
@@ -11851,7 +13116,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>2005</v>
       </c>
@@ -11888,7 +13153,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>2006</v>
       </c>
@@ -11925,7 +13190,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>2007</v>
       </c>
@@ -11964,7 +13229,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>2008</v>
       </c>
@@ -12003,7 +13268,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>2009</v>
       </c>
@@ -12042,7 +13307,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>2010</v>
       </c>
@@ -12081,7 +13346,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>2011</v>
       </c>
@@ -12120,7 +13385,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>2012</v>
       </c>
@@ -12159,7 +13424,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>2013</v>
       </c>
@@ -12198,7 +13463,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>2014</v>
       </c>
@@ -12237,7 +13502,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>2015</v>
       </c>
@@ -12276,7 +13541,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>2016</v>
       </c>
@@ -12315,7 +13580,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>2017</v>
       </c>
@@ -12354,7 +13619,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>2018</v>
       </c>
@@ -12393,7 +13658,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>2018</v>
       </c>
@@ -12432,7 +13697,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>2018</v>
       </c>
@@ -12471,7 +13736,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>2019</v>
       </c>
@@ -12510,7 +13775,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>2019</v>
       </c>
@@ -12549,7 +13814,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>2020</v>
       </c>
@@ -12566,7 +13831,7 @@
         <v>131</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G24" s="19" t="s">
         <v>0</v>
@@ -12588,7 +13853,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>2020</v>
       </c>
@@ -12627,7 +13892,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>2020</v>
       </c>
@@ -12663,6 +13928,123 @@
       </c>
       <c r="L26" s="17" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" s="17" t="str">
+        <f t="shared" ref="L27:L29" si="1">IF(OR(AND(I27&gt;1,I27&lt;&gt;"-"),AND(J27&gt;1,J27&lt;&gt;"-"),AND(K27&gt;1,K27&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" s="17" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -12675,6 +14057,64 @@
     <mergeCell ref="I1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:K18">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:K19 J20:K20">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:K21">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:K21">
+    <cfRule type="containsText" dxfId="63" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="containsText" dxfId="62" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12686,7 +14126,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19:K19 J20:K20">
+  <conditionalFormatting sqref="K22">
+    <cfRule type="containsText" dxfId="61" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12698,7 +14155,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:K21">
+  <conditionalFormatting sqref="J23">
+    <cfRule type="containsText" dxfId="60" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12710,12 +14172,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="101" priority="35" operator="containsText" text="*-">
+  <conditionalFormatting sqref="K23">
+    <cfRule type="containsText" dxfId="59" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
+  <conditionalFormatting sqref="I20">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12727,12 +14189,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="100" priority="31" operator="containsText" text="*-">
+  <conditionalFormatting sqref="I20">
+    <cfRule type="containsText" dxfId="58" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
+  <conditionalFormatting sqref="I23">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12744,24 +14206,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="99" priority="29" operator="containsText" text="*-">
+  <conditionalFormatting sqref="I23">
+    <cfRule type="containsText" dxfId="57" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
+  <conditionalFormatting sqref="I24">
+    <cfRule type="containsText" dxfId="56" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12773,187 +14226,182 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="98" priority="27" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J24">
+    <cfRule type="containsText" dxfId="55" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J24))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
+    <cfRule type="containsText" dxfId="54" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K24))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
+    <cfRule type="containsText" dxfId="53" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
+    <cfRule type="containsText" dxfId="52" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="containsText" dxfId="51" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="97" priority="25" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J26">
+    <cfRule type="containsText" dxfId="50" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
+    <cfRule type="containsText" dxfId="49" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="containsText" dxfId="48" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:K27">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:K27">
+    <cfRule type="containsText" dxfId="44" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="96" priority="21" operator="containsText" text="*-">
+  <conditionalFormatting sqref="I28:K28">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28:K28">
+    <cfRule type="containsText" dxfId="43" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="95" priority="19" operator="containsText" text="*-">
+  <conditionalFormatting sqref="I29:K29">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29:K29">
+    <cfRule type="containsText" dxfId="42" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24">
-    <cfRule type="containsText" dxfId="19" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J24))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
-    <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K24))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J26">
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -12973,7 +14421,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="39" operator="containsText" text="*-" id="{B1B9A5D1-0CFF-421D-A39B-4B777D992211}">
+          <x14:cfRule type="containsText" priority="49" operator="containsText" text="*-" id="{B1B9A5D1-0CFF-421D-A39B-4B777D992211}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I3))))</xm:f>
             <x14:dxf>
               <fill>
@@ -12987,7 +14435,7 @@
           <xm:sqref>I3:K18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="37" operator="containsText" text="*-" id="{EC1F1189-267E-4F63-9374-4B18FB5CF284}">
+          <x14:cfRule type="containsText" priority="47" operator="containsText" text="*-" id="{EC1F1189-267E-4F63-9374-4B18FB5CF284}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I17))))</xm:f>
             <x14:dxf>
               <fill>
@@ -13001,7 +14449,7 @@
           <xm:sqref>I19:K19 J20:K20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="33" operator="containsText" text="*-" id="{3B568CAB-8240-42F9-8E17-4A1E9B7ABB59}">
+          <x14:cfRule type="containsText" priority="43" operator="containsText" text="*-" id="{3B568CAB-8240-42F9-8E17-4A1E9B7ABB59}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I16))))</xm:f>
             <x14:dxf>
               <fill>
@@ -13022,29 +14470,29 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="3" customWidth="1"/>
-    <col min="7" max="9" width="12.42578125" style="3" customWidth="1"/>
-    <col min="10" max="12" width="3.85546875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.54296875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.54296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" style="3" customWidth="1"/>
+    <col min="7" max="9" width="12.453125" style="3" customWidth="1"/>
+    <col min="10" max="12" width="3.81640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.7265625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -13069,7 +14517,7 @@
       <c r="L1" s="35"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="10" t="s">
@@ -13104,7 +14552,7 @@
       </c>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2002</v>
       </c>
@@ -13144,7 +14592,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>2002</v>
       </c>
@@ -13186,7 +14634,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>2002</v>
       </c>
@@ -13228,7 +14676,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>2003</v>
       </c>
@@ -13268,7 +14716,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>2004</v>
       </c>
@@ -13308,7 +14756,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>2005</v>
       </c>
@@ -13346,7 +14794,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>2006</v>
       </c>
@@ -13384,7 +14832,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>2007</v>
       </c>
@@ -13424,7 +14872,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>2008</v>
       </c>
@@ -13464,7 +14912,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>2009</v>
       </c>
@@ -13504,7 +14952,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>2010</v>
       </c>
@@ -13544,7 +14992,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>2011</v>
       </c>
@@ -13584,7 +15032,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>2012</v>
       </c>
@@ -13624,7 +15072,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>2013</v>
       </c>
@@ -13664,7 +15112,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>2014</v>
       </c>
@@ -13704,7 +15152,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>2015</v>
       </c>
@@ -13744,7 +15192,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>2016</v>
       </c>
@@ -13784,7 +15232,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>2017</v>
       </c>
@@ -13824,7 +15272,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>2018</v>
       </c>
@@ -13864,7 +15312,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>2018</v>
       </c>
@@ -13904,7 +15352,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>2018</v>
       </c>
@@ -13944,7 +15392,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>2019</v>
       </c>
@@ -13984,7 +15432,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>2019</v>
       </c>
@@ -14024,7 +15472,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>2020</v>
       </c>
@@ -14042,7 +15490,7 @@
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H26" s="19" t="s">
         <v>0</v>
@@ -14064,7 +15512,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>2020</v>
       </c>
@@ -14104,7 +15552,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
         <v>2020</v>
       </c>
@@ -14141,6 +15589,126 @@
       </c>
       <c r="M28" s="17" t="str">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="M29" s="17" t="str">
+        <f t="shared" ref="M29" si="2">IF(OR(AND(J29&gt;1,J29&lt;&gt;"-"),AND(K29&gt;1,K29&lt;&gt;"-"),AND(L29&gt;1,L29&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K30" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L30" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="M30" s="17" t="str">
+        <f t="shared" ref="M30:M31" si="3">IF(OR(AND(J30&gt;1,J30&lt;&gt;"-"),AND(K30&gt;1,K30&lt;&gt;"-"),AND(L30&gt;1,L30&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L31" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" s="17" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14153,7 +15721,7 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:L3 J4 K4:L5">
-    <cfRule type="colorScale" priority="42">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -14165,7 +15733,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:L21 K22:L22">
-    <cfRule type="colorScale" priority="104">
+    <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -14177,7 +15745,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="colorScale" priority="120">
+    <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -14189,6 +15757,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23:L23">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23:L23">
+    <cfRule type="containsText" dxfId="40" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14200,12 +15785,58 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23:L23">
-    <cfRule type="containsText" dxfId="91" priority="29" operator="containsText" text="*-">
+  <conditionalFormatting sqref="K24">
+    <cfRule type="containsText" dxfId="39" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
+  <conditionalFormatting sqref="L24">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24">
+    <cfRule type="containsText" dxfId="38" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
+    <cfRule type="containsText" dxfId="37" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L25">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14217,41 +15848,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
-    <cfRule type="containsText" dxfId="90" priority="21" operator="containsText" text="*-">
+  <conditionalFormatting sqref="L25">
+    <cfRule type="containsText" dxfId="36" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L24">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L24">
-    <cfRule type="containsText" dxfId="89" priority="19" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J22">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="containsText" dxfId="35" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
+  <conditionalFormatting sqref="J25">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14263,12 +15882,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="88" priority="15" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J25">
+    <cfRule type="containsText" dxfId="34" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L25">
+  <conditionalFormatting sqref="J26:L26 K27:L27">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14280,12 +15899,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L25">
-    <cfRule type="containsText" dxfId="87" priority="13" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J28:L28">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28:L28">
+    <cfRule type="containsText" dxfId="33" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
+  <conditionalFormatting sqref="J27">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14297,12 +15928,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="86" priority="9" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J27">
+    <cfRule type="containsText" dxfId="32" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
+  <conditionalFormatting sqref="K29:L29">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14314,12 +15945,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="85" priority="7" operator="containsText" text="*-">
+  <conditionalFormatting sqref="K29:L29">
+    <cfRule type="containsText" dxfId="27" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26:L26 K27:L27">
+  <conditionalFormatting sqref="J30:L30">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14331,7 +15962,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J28:L28">
+  <conditionalFormatting sqref="J30:L30">
+    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31:L31">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14343,12 +15979,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J28:L28">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J31:L31">
+    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
+  <conditionalFormatting sqref="J29">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14358,11 +15994,6 @@
         <color rgb="FFD1E0B2"/>
         <color rgb="FF00B050"/>
       </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14372,7 +16003,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="41" operator="containsText" text="*-" id="{95C465FF-CE2B-42D0-B46C-CD9B3B394EA2}">
+          <x14:cfRule type="containsText" priority="49" operator="containsText" text="*-" id="{95C465FF-CE2B-42D0-B46C-CD9B3B394EA2}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I3))))</xm:f>
             <x14:dxf>
               <fill>
@@ -14386,7 +16017,7 @@
           <xm:sqref>J3:L3 J4 K4:L5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="103" operator="containsText" text="*-" id="{95C465FF-CE2B-42D0-B46C-CD9B3B394EA2}">
+          <x14:cfRule type="containsText" priority="111" operator="containsText" text="*-" id="{95C465FF-CE2B-42D0-B46C-CD9B3B394EA2}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I4))))</xm:f>
             <x14:dxf>
               <fill>
@@ -14397,10 +16028,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J6:L21 K22:L22</xm:sqref>
+          <xm:sqref>J6:L21 K22:L22 J26:L26 K27:L27 J29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="119" operator="containsText" text="*-" id="{95C465FF-CE2B-42D0-B46C-CD9B3B394EA2}">
+          <x14:cfRule type="containsText" priority="127" operator="containsText" text="*-" id="{95C465FF-CE2B-42D0-B46C-CD9B3B394EA2}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I4))))</xm:f>
             <x14:dxf>
               <fill>
@@ -14414,7 +16045,7 @@
           <xm:sqref>J5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="23" operator="containsText" text="*-" id="{DB203A13-BF1F-4DC4-B6DC-C2FB9CBCC828}">
+          <x14:cfRule type="containsText" priority="31" operator="containsText" text="*-" id="{DB203A13-BF1F-4DC4-B6DC-C2FB9CBCC828}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I18))))</xm:f>
             <x14:dxf>
               <fill>
@@ -14426,20 +16057,6 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>J24</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="5" operator="containsText" text="*-" id="{5B9C80CE-DA01-4D89-A3FF-61DD8ADD1E90}">
-            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I24))))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9BE5FF"/>
-                  <bgColor rgb="FF9BE5FF"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J26:L26 K27:L27</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -14458,14 +16075,14 @@
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
@@ -14476,7 +16093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -14487,7 +16104,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -14498,7 +16115,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -14509,7 +16126,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -14520,7 +16137,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -14531,7 +16148,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>6</v>
       </c>

--- a/Collections/EURO/Luxembourg/#EURO#Luxembourg#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Luxembourg/#EURO#Luxembourg#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Luxembourg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71A7B30-B1EF-4AB7-9598-8C3C9F2737BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C060892E-1EAF-4CBD-B950-20DCFA231B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10980" yWindow="2600" windowWidth="26900" windowHeight="16750" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -890,7 +890,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2132" uniqueCount="149">
   <si>
     <t>-</t>
   </si>
@@ -1676,7 +1676,31 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="191">
+  <dxfs count="194">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3221,9 +3245,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="4" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3494,7 +3518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -4627,7 +4651,7 @@
     <mergeCell ref="I1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:I5 I10:I18">
-    <cfRule type="containsText" dxfId="190" priority="97" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="193" priority="97" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="98">
@@ -4642,7 +4666,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J7">
-    <cfRule type="containsText" dxfId="189" priority="93" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="192" priority="93" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="94">
@@ -4657,7 +4681,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="188" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="191" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -4672,7 +4696,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K9">
-    <cfRule type="containsText" dxfId="187" priority="87" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="190" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="88">
@@ -4687,7 +4711,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="containsText" dxfId="186" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="189" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="66">
@@ -4702,7 +4726,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="containsText" dxfId="185" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="188" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="64">
@@ -4717,7 +4741,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J18">
-    <cfRule type="containsText" dxfId="184" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="187" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="62">
@@ -4732,7 +4756,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5 J3">
-    <cfRule type="containsText" dxfId="183" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="186" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="58">
@@ -4747,7 +4771,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="182" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="185" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -4762,7 +4786,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:K18">
-    <cfRule type="containsText" dxfId="181" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="184" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K10))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="54">
@@ -4777,7 +4801,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="containsText" dxfId="180" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="183" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="68">
@@ -4792,7 +4816,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K7">
-    <cfRule type="containsText" dxfId="179" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="182" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="52">
@@ -4807,7 +4831,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:K19 J20:K20">
-    <cfRule type="containsText" dxfId="178" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="181" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -4834,7 +4858,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="177" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="180" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4851,7 +4875,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="176" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="179" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4868,12 +4892,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="175" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="178" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="containsText" dxfId="174" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="177" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="46">
@@ -4900,7 +4924,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="173" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="176" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4917,7 +4941,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="172" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="175" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4934,7 +4958,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="171" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="174" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4951,12 +4975,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="170" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="173" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="containsText" dxfId="169" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="172" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -4971,7 +4995,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="containsText" dxfId="168" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="171" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -4986,7 +5010,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24">
-    <cfRule type="containsText" dxfId="167" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="170" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -5001,7 +5025,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="166" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="169" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -5016,7 +5040,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="165" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="168" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -5043,12 +5067,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="containsText" dxfId="164" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="167" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="containsText" dxfId="163" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="166" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -5063,7 +5087,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26">
-    <cfRule type="containsText" dxfId="162" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="165" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -5078,7 +5102,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="161" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="164" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -5105,7 +5129,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:K27">
-    <cfRule type="containsText" dxfId="160" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="163" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5122,7 +5146,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:K28">
-    <cfRule type="containsText" dxfId="159" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="162" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5139,12 +5163,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:K29">
-    <cfRule type="containsText" dxfId="158" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="161" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="containsText" dxfId="157" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="160" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -6339,7 +6363,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="156" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="159" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6356,7 +6380,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="155" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="158" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6373,7 +6397,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="154" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="157" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6402,7 +6426,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="153" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="156" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6419,7 +6443,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="152" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="155" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6436,7 +6460,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="151" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="154" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6453,12 +6477,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="150" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="153" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="containsText" dxfId="149" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="152" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -6473,7 +6497,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="containsText" dxfId="148" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="151" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -6488,7 +6512,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24">
-    <cfRule type="containsText" dxfId="147" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="150" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -6503,7 +6527,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="146" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="149" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -6518,7 +6542,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="145" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="148" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -6545,12 +6569,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="containsText" dxfId="144" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="147" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="containsText" dxfId="143" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="146" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -6565,7 +6589,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26">
-    <cfRule type="containsText" dxfId="142" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="145" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -6580,7 +6604,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="141" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="144" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -6607,7 +6631,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:K27">
-    <cfRule type="containsText" dxfId="140" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="143" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6624,7 +6648,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:K28">
-    <cfRule type="containsText" dxfId="139" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="142" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6641,12 +6665,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:K29">
-    <cfRule type="containsText" dxfId="138" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="141" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="containsText" dxfId="137" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="140" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -7887,7 +7911,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="133" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="136" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7904,7 +7928,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="132" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="135" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7921,7 +7945,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="131" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="134" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7950,7 +7974,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="130" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="133" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7967,7 +7991,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="129" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="132" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7984,7 +8008,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="128" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="131" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8001,12 +8025,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="127" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="130" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="containsText" dxfId="126" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="129" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -8021,7 +8045,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="containsText" dxfId="125" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="128" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -8036,7 +8060,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24">
-    <cfRule type="containsText" dxfId="124" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="127" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -8051,7 +8075,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="123" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="126" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -8066,7 +8090,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="122" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="125" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -8093,12 +8117,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="containsText" dxfId="121" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="124" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="containsText" dxfId="120" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="123" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -8113,7 +8137,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26">
-    <cfRule type="containsText" dxfId="119" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="122" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -8128,7 +8152,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="118" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="121" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -8155,7 +8179,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:K27">
-    <cfRule type="containsText" dxfId="117" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="120" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8172,7 +8196,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:K28">
-    <cfRule type="containsText" dxfId="116" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="119" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8189,12 +8213,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:K29">
-    <cfRule type="containsText" dxfId="115" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="118" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="containsText" dxfId="114" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="117" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -9425,7 +9449,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="110" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="113" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9454,7 +9478,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="109" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="112" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9471,7 +9495,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="108" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="111" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9488,7 +9512,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="107" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="110" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9505,7 +9529,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="106" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="109" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9522,7 +9546,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="105" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="108" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9539,7 +9563,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="104" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="107" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9556,7 +9580,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="containsText" dxfId="103" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="106" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -9571,7 +9595,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="containsText" dxfId="102" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="105" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -9586,7 +9610,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24">
-    <cfRule type="containsText" dxfId="101" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="104" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -9601,7 +9625,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="100" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="103" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -9616,7 +9640,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="99" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="102" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -9643,12 +9667,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="containsText" dxfId="98" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="101" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="containsText" dxfId="97" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="100" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -9663,7 +9687,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26">
-    <cfRule type="containsText" dxfId="96" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="99" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -9678,7 +9702,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="95" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="98" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -9705,7 +9729,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:K27">
-    <cfRule type="containsText" dxfId="94" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="97" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9722,7 +9746,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:K28">
-    <cfRule type="containsText" dxfId="93" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="96" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9739,12 +9763,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:K29">
-    <cfRule type="containsText" dxfId="92" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="95" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="containsText" dxfId="91" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -10987,7 +11011,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="87" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11004,7 +11028,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="86" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11021,7 +11045,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="85" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11050,7 +11074,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="84" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11067,7 +11091,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="83" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11084,7 +11108,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="82" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11101,12 +11125,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="81" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="containsText" dxfId="80" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -11121,7 +11145,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="containsText" dxfId="79" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -11136,7 +11160,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24">
-    <cfRule type="containsText" dxfId="78" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -11151,7 +11175,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="77" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -11166,7 +11190,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="76" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -11193,12 +11217,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="containsText" dxfId="75" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="containsText" dxfId="74" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -11213,7 +11237,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26">
-    <cfRule type="containsText" dxfId="73" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -11228,7 +11252,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="72" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -11255,7 +11279,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:K27">
-    <cfRule type="containsText" dxfId="71" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11272,7 +11296,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:K28">
-    <cfRule type="containsText" dxfId="70" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11289,12 +11313,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:K29">
-    <cfRule type="containsText" dxfId="69" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="containsText" dxfId="68" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -12537,7 +12561,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="64" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12554,7 +12578,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="63" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12571,7 +12595,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="62" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12600,7 +12624,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="61" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12617,7 +12641,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="60" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12634,7 +12658,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="59" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12651,12 +12675,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="58" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="containsText" dxfId="57" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -12671,7 +12695,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="containsText" dxfId="56" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -12686,7 +12710,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24">
-    <cfRule type="containsText" dxfId="55" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -12701,7 +12725,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="54" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -12716,7 +12740,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="53" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -12743,12 +12767,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="containsText" dxfId="52" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="containsText" dxfId="51" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -12763,7 +12787,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26">
-    <cfRule type="containsText" dxfId="50" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -12778,7 +12802,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="49" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -12805,7 +12829,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:K27">
-    <cfRule type="containsText" dxfId="48" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12822,7 +12846,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:K28">
-    <cfRule type="containsText" dxfId="47" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12839,12 +12863,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:K29">
-    <cfRule type="containsText" dxfId="46" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="containsText" dxfId="45" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -14085,7 +14109,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="41" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14102,7 +14126,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14119,7 +14143,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14148,7 +14172,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14165,7 +14189,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="37" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14182,7 +14206,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="36" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14199,12 +14223,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="35" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="containsText" dxfId="34" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -14219,7 +14243,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="containsText" dxfId="33" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -14234,7 +14258,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24">
-    <cfRule type="containsText" dxfId="32" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -14249,7 +14273,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="31" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -14264,7 +14288,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="30" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -14291,12 +14315,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="containsText" dxfId="29" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="containsText" dxfId="28" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -14311,7 +14335,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26">
-    <cfRule type="containsText" dxfId="27" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -14326,7 +14350,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="26" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -14353,7 +14377,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:K27">
-    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14370,7 +14394,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:K28">
-    <cfRule type="containsText" dxfId="24" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14387,12 +14411,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:K29">
-    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -14464,11 +14488,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14571,7 +14595,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>0</v>
@@ -14581,7 +14605,7 @@
       </c>
       <c r="M3" s="17" t="str">
         <f t="shared" ref="M3:M25" si="0">IF(OR(AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-")),"Can exchange","")</f>
-        <v>Can exchange</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -14612,7 +14636,7 @@
       <c r="I4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -14654,7 +14678,7 @@
       <c r="I5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -15712,8 +15736,8 @@
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="C1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J3:L3 J4 K4:L5">
-    <cfRule type="colorScale" priority="50">
+  <conditionalFormatting sqref="J3:L3 K4:L5 J4">
+    <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -15725,19 +15749,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:L21 K22:L22">
-    <cfRule type="colorScale" priority="112">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="colorScale" priority="128">
+    <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -15749,6 +15761,57 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23:L23">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23:L23">
+    <cfRule type="containsText" dxfId="21" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
+    <cfRule type="containsText" dxfId="20" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24">
+    <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -15760,138 +15823,138 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23:L23">
-    <cfRule type="containsText" dxfId="18" priority="37" operator="containsText" text="*-">
+  <conditionalFormatting sqref="K25">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
+    <cfRule type="containsText" dxfId="18" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
-    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
+  <conditionalFormatting sqref="L25">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L25">
+    <cfRule type="containsText" dxfId="17" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L24">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L24">
-    <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J22">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="containsText" dxfId="16" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="15" priority="23" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J25">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
+    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L25">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L25">
-    <cfRule type="containsText" dxfId="14" priority="21" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J26:L26 K27:L27">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28:L28">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28:L28">
+    <cfRule type="containsText" dxfId="14" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J27">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="*-">
+  <conditionalFormatting sqref="K29:L29">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29:L29">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26:L26 K27:L27">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28:L28">
+  <conditionalFormatting sqref="J30:L30">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -15903,12 +15966,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J28:L28">
+  <conditionalFormatting sqref="J30:L30">
     <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
+  <conditionalFormatting sqref="J31:L31">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -15920,12 +15983,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
+  <conditionalFormatting sqref="J31:L31">
     <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:L29">
+  <conditionalFormatting sqref="J29">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -15937,46 +16000,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:L29">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30:L30">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30:L30">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J31:L31">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J31:L31">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29">
+  <conditionalFormatting sqref="J5">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -15995,7 +16019,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="49" operator="containsText" text="*-" id="{95C465FF-CE2B-42D0-B46C-CD9B3B394EA2}">
+          <x14:cfRule type="containsText" priority="55" operator="containsText" text="*-" id="{95C465FF-CE2B-42D0-B46C-CD9B3B394EA2}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I3))))</xm:f>
             <x14:dxf>
               <fill>
@@ -16006,10 +16030,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J3:L3 J4 K4:L5</xm:sqref>
+          <xm:sqref>J3:L3 K4:L5 J4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="111" operator="containsText" text="*-" id="{95C465FF-CE2B-42D0-B46C-CD9B3B394EA2}">
+          <x14:cfRule type="containsText" priority="117" operator="containsText" text="*-" id="{95C465FF-CE2B-42D0-B46C-CD9B3B394EA2}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I4))))</xm:f>
             <x14:dxf>
               <fill>
@@ -16023,21 +16047,7 @@
           <xm:sqref>J6:L21 K22:L22 J26:L26 K27:L27 J29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="127" operator="containsText" text="*-" id="{95C465FF-CE2B-42D0-B46C-CD9B3B394EA2}">
-            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I4))))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9BE5FF"/>
-                  <bgColor rgb="FF9BE5FF"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="31" operator="containsText" text="*-" id="{DB203A13-BF1F-4DC4-B6DC-C2FB9CBCC828}">
+          <x14:cfRule type="containsText" priority="37" operator="containsText" text="*-" id="{DB203A13-BF1F-4DC4-B6DC-C2FB9CBCC828}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I18))))</xm:f>
             <x14:dxf>
               <fill>
@@ -16049,6 +16059,20 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>J24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" text="*-" id="{2696D963-BD85-416F-AB4B-06CA7A9BE324}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!I5))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J5</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
